--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -219,7 +219,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="6f6150"/>
+      <color rgb="6b7478"/>
     </font>
     <font>
       <b/>
@@ -247,6 +247,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="e9f1f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="dcc6a9"/>
       </patternFill>
     </fill>
@@ -262,12 +267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="f3f7f9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="f5efe7"/>
+        <fgColor rgb="ede1d2"/>
       </patternFill>
     </fill>
   </fills>
@@ -306,27 +306,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -77,33 +77,33 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
     <t>Constitution</t>
   </si>
   <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Agamemnon</t>
+    <t>Constitution Classic</t>
   </si>
   <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Trincomalee</t>
   </si>
   <si>
@@ -113,76 +113,79 @@
     <t>Endymion</t>
   </si>
   <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Renommee</t>
+    <t>Xebec</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Hercules</t>
+    <t>Lynx</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -191,16 +194,13 @@
     <t>GunBoat</t>
   </si>
   <si>
-    <t>Lynx</t>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="12">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D35" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="12">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -849,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="12">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -1017,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="12">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="12">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="12">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1143,7 +1143,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="12">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="12">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="12">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="12">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="12">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="12">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1479,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
@@ -1521,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="12">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="12">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1731,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="12">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="12">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="12">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -1857,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="12">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -1899,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="12">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="12">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2067,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="12">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
@@ -2380,7 +2380,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -2422,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -2464,7 +2464,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -2506,7 +2506,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -2545,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -2587,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2716,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -2758,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -2800,7 +2800,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -2842,7 +2842,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="12">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -71,12 +71,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>3rd Rate</t>
+  </si>
+  <si>
     <t>Bellona</t>
   </si>
   <si>
-    <t>3rd Rate</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -86,12 +86,12 @@
     <t>Constitution</t>
   </si>
   <si>
+    <t>Wapen von Hamburg</t>
+  </si>
+  <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Wapen von Hamburg</t>
-  </si>
-  <si>
     <t>Constitution Classic</t>
   </si>
   <si>
@@ -101,57 +101,66 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
     <t>Endymion</t>
   </si>
   <si>
-    <t>Trincomalee</t>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Essex</t>
   </si>
   <si>
     <t>Indiaman</t>
   </si>
   <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Essex</t>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Surprise</t>
   </si>
   <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Surprise</t>
+    <t>Renommee</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
   </si>
   <si>
-    <t>Renommee</t>
+    <t>Xebec</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Mortar Brig</t>
   </si>
   <si>
     <t>Hercules</t>
   </si>
   <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -161,43 +170,34 @@
     <t>Niagara</t>
   </si>
   <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Pickle</t>
   </si>
   <si>
+    <t>Privateer</t>
+  </si>
+  <si>
     <t>Cutter</t>
   </si>
   <si>
     <t>GunBoat</t>
   </si>
   <si>
+    <t>Yacht</t>
+  </si>
+  <si>
+    <t>Yacht Silver</t>
+  </si>
+  <si>
     <t>Lynx</t>
-  </si>
-  <si>
-    <t>Privateer</t>
-  </si>
-  <si>
-    <t>Yacht</t>
-  </si>
-  <si>
-    <t>Yacht Silver</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="10">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D34" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="10">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -1161,7 +1161,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="10">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="10">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -1287,7 +1287,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="10">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="10">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -1371,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="10">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="10">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="10">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="10">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="0"/>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="10">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="0"/>
@@ -1581,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="0"/>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="10">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
@@ -1665,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="10">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1707,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="10">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="10">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="10">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
@@ -1833,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="10">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="10">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="10">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
@@ -1959,7 +1959,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="10">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
@@ -2001,7 +2001,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="10">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
@@ -2043,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D20" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -2205,10 +2205,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -2298,7 +2298,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -2382,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -2550,7 +2550,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -2634,7 +2634,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="10">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -2718,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -2802,7 +2802,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
@@ -2844,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -2886,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -71,12 +71,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Bellona</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Bellona</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -101,45 +101,45 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Endymion</t>
+  </si>
+  <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Endymion</t>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
   </si>
   <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Indiaman</t>
+    <t>Pirate Frigate</t>
   </si>
   <si>
     <t>Frigate</t>
   </si>
   <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
     <t>Renommee</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Xebec</t>
   </si>
   <si>
@@ -155,49 +155,49 @@
     <t>Pandora</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Rattlesnake Heavy</t>
   </si>
   <si>
     <t>Snow</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
     <t>Brig</t>
   </si>
   <si>
     <t>Pickle</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
     <t>Privateer</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
     <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Lynx</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="10">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="10">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="10">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -1329,7 +1329,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="10">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="10">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="10">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="10">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="0"/>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="10">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="0"/>
@@ -1581,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="0"/>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
@@ -1665,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="10">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="10">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="0"/>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="10">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
@@ -1833,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="10">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="10">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="0"/>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
@@ -1959,7 +1959,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
@@ -2001,7 +2001,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="10">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
@@ -2043,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D20" si="0">COUNTIF(F3:AE3,"*")</f>
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
@@ -2253,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
@@ -2295,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
@@ -2340,7 +2340,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -2382,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -2424,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
@@ -2508,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
@@ -2550,7 +2550,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -2634,7 +2634,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
@@ -2886,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -77,12 +77,12 @@
     <t>St. Pavel</t>
   </si>
   <si>
+    <t>Bellona</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Bellona</t>
-  </si>
-  <si>
     <t>Wasa</t>
   </si>
   <si>
@@ -104,30 +104,30 @@
     <t>Indefatigable</t>
   </si>
   <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Endymion</t>
+  </si>
+  <si>
     <t>Trincomalee</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Endymion</t>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Indiaman</t>
   </si>
   <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
     <t>Pirate Frigate</t>
   </si>
   <si>
@@ -137,15 +137,15 @@
     <t>Surprise</t>
   </si>
   <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Renommee</t>
   </si>
   <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Xebec</t>
   </si>
   <si>
@@ -158,6 +158,9 @@
     <t>Brig</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -167,40 +170,37 @@
     <t>Niagara</t>
   </si>
   <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
     <t>Lynx</t>
   </si>
   <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
+    <t>Privateer</t>
   </si>
   <si>
     <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Privateer</t>
   </si>
   <si>
     <t>Pickle</t>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="12">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -849,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="12">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -1017,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="12">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="12">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="12">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1227,7 +1227,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="12">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="12">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="12">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -1479,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="12">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
@@ -1521,7 +1521,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="12">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1605,7 +1605,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="12">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="12">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="12">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="0"/>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="12">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="12">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="0"/>
@@ -1857,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="12">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -1899,7 +1899,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="12">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="12">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2067,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2335,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
@@ -2377,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
@@ -2419,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
@@ -2461,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -2503,10 +2503,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
@@ -2545,10 +2545,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -119,12 +119,12 @@
     <t>Santa Cecilia</t>
   </si>
   <si>
+    <t>Indiaman</t>
+  </si>
+  <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Indiaman</t>
-  </si>
-  <si>
     <t>Belle Poule</t>
   </si>
   <si>
@@ -140,15 +140,15 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
     <t>Xebec</t>
   </si>
   <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Cerberus</t>
   </si>
   <si>
@@ -158,49 +158,49 @@
     <t>Brig</t>
   </si>
   <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
+    <t>NavyBrig</t>
   </si>
   <si>
     <t>Niagara</t>
   </si>
   <si>
-    <t>NavyBrig</t>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Rattlesnake</t>
   </si>
   <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
     <t>Privateer</t>
   </si>
   <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>Lynx</t>
+    <t>Yacht</t>
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Yacht</t>
   </si>
   <si>
     <t>Pickle</t>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -155,34 +155,37 @@
     <t>Mortar Brig</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Pandora</t>
+    <t>Pickle</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -201,9 +204,6 @@
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Pickle</t>
   </si>
 </sst>
 </file>
@@ -733,10 +733,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D4:D35)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E35)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2180,10 +2180,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D20)</f>
+        <f>SUM(D4:D21)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E20)</f>
+        <f>SUM(E4:E21)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2200,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -210,6 +210,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <color theme="1"/>
@@ -296,18 +299,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,14 +319,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -155,34 +155,37 @@
     <t>Mortar Brig</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>NavyBrig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
     <t>Brig</t>
   </si>
   <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>NavyBrig</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Hercules</t>
-  </si>
-  <si>
-    <t>Pandora</t>
+    <t>Pickle</t>
   </si>
   <si>
     <t>Cutter</t>
@@ -201,15 +204,15 @@
   </si>
   <si>
     <t>Yacht Silver</t>
-  </si>
-  <si>
-    <t>Pickle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <color theme="1"/>
@@ -296,18 +299,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,14 +319,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D4:D35)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E35)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2180,10 +2183,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D4:D20)</f>
+        <f>SUM(D4:D21)</f>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E4:E20)</f>
+        <f>SUM(E4:E21)</f>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -2200,7 +2203,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D21" si="0">COUNTIF(F4:AE4,"*")</f>
@@ -2248,7 +2251,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
@@ -2590,7 +2593,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
@@ -2632,7 +2635,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="12">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
@@ -2674,7 +2677,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
@@ -2926,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -92,15 +92,15 @@
     <t>Constitution</t>
   </si>
   <si>
+    <t>Constitution Classic</t>
+  </si>
+  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Indefatigable</t>
   </si>
   <si>
@@ -146,16 +146,16 @@
     <t>Renommee</t>
   </si>
   <si>
-    <t>Xebec</t>
-  </si>
-  <si>
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Hercules</t>
-  </si>
-  <si>
-    <t>Pandora</t>
   </si>
   <si>
     <t>Mercury</t>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="15">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="0"/>
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="15">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" si="0"/>
@@ -1326,46 +1326,46 @@
       <c r="AD16" s="17"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>5</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="15">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12">
-        <v>290</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
+      <c r="C17" s="15">
+        <v>275</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -2005,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="12">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -2131,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" si="0"/>
@@ -2648,7 +2648,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1791,7 +1791,7 @@
         <v>605</v>
       </c>
       <c r="D5" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="27">
         <f>C5*D5</f>
@@ -1844,7 +1844,7 @@
         <v>580</v>
       </c>
       <c r="D6" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="27">
         <f>C6*D6</f>
@@ -1897,7 +1897,7 @@
         <v>515</v>
       </c>
       <c r="D7" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="27">
         <f>C7*D7</f>
@@ -1944,7 +1944,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -1991,7 +1991,7 @@
         <v>450</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -2038,7 +2038,7 @@
         <v>395</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -2085,7 +2085,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="27">
         <f>C11*D11</f>
@@ -2132,7 +2132,7 @@
         <v>355</v>
       </c>
       <c r="D12" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="27">
         <f>C12*D12</f>
@@ -2179,7 +2179,7 @@
         <v>305</v>
       </c>
       <c r="D13" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="27">
         <f>C13*D13</f>
@@ -2226,7 +2226,7 @@
         <v>300</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -2273,7 +2273,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -2320,7 +2320,7 @@
         <v>290</v>
       </c>
       <c r="D16" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="32">
         <f>C16*D16</f>
@@ -2367,7 +2367,7 @@
         <v>280</v>
       </c>
       <c r="D17" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="32">
         <f>C17*D17</f>
@@ -2414,7 +2414,7 @@
         <v>275</v>
       </c>
       <c r="D18" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="32">
         <f>C18*D18</f>
@@ -2461,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -2508,7 +2508,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -2555,7 +2555,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -2602,7 +2602,7 @@
         <v>230</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>
@@ -2649,7 +2649,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F23:AC23)))</f>
+        <f>COUNTA(F23:AC23)</f>
       </c>
       <c r="E23" s="27">
         <f>C23*D23</f>
@@ -2696,7 +2696,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F24:AC24)))</f>
+        <f>COUNTA(F24:AC24)</f>
       </c>
       <c r="E24" s="27">
         <f>C24*D24</f>
@@ -2743,7 +2743,7 @@
         <v>190</v>
       </c>
       <c r="D25" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F25:AC25)))</f>
+        <f>COUNTA(F25:AC25)</f>
       </c>
       <c r="E25" s="27">
         <f>C25*D25</f>
@@ -2790,7 +2790,7 @@
         <v>190</v>
       </c>
       <c r="D26" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F26:AC26)))</f>
+        <f>COUNTA(F26:AC26)</f>
       </c>
       <c r="E26" s="27">
         <f>C26*D26</f>
@@ -2837,7 +2837,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F27:AC27)))</f>
+        <f>COUNTA(F27:AC27)</f>
       </c>
       <c r="E27" s="27">
         <f>C27*D27</f>
@@ -2884,7 +2884,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F28:AC28)))</f>
+        <f>COUNTA(F28:AC28)</f>
       </c>
       <c r="E28" s="27">
         <f>C28*D28</f>
@@ -2931,7 +2931,7 @@
         <v>175</v>
       </c>
       <c r="D29" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F29:AC29)))</f>
+        <f>COUNTA(F29:AC29)</f>
       </c>
       <c r="E29" s="27">
         <f>C29*D29</f>
@@ -2978,7 +2978,7 @@
         <v>155</v>
       </c>
       <c r="D30" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F30:AC30)))</f>
+        <f>COUNTA(F30:AC30)</f>
       </c>
       <c r="E30" s="27">
         <f>C30*D30</f>
@@ -3025,7 +3025,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F31:AC31)))</f>
+        <f>COUNTA(F31:AC31)</f>
       </c>
       <c r="E31" s="27">
         <f>C31*D31</f>
@@ -3072,7 +3072,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F32:AC32)))</f>
+        <f>COUNTA(F32:AC32)</f>
       </c>
       <c r="E32" s="27">
         <f>C32*D32</f>
@@ -3119,7 +3119,7 @@
         <v>150</v>
       </c>
       <c r="D33" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F33:AC33)))</f>
+        <f>COUNTA(F33:AC33)</f>
       </c>
       <c r="E33" s="27">
         <f>C33*D33</f>
@@ -3166,7 +3166,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F34:AC34)))</f>
+        <f>COUNTA(F34:AC34)</f>
       </c>
       <c r="E34" s="27">
         <f>C34*D34</f>
@@ -3213,7 +3213,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F35:AC35)))</f>
+        <f>COUNTA(F35:AC35)</f>
       </c>
       <c r="E35" s="27">
         <f>C35*D35</f>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F36:AC36)))</f>
+        <f>COUNTA(F36:AC36)</f>
       </c>
       <c r="E36" s="32">
         <f>C36*D36</f>
@@ -3307,7 +3307,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F37:AC37)))</f>
+        <f>COUNTA(F37:AC37)</f>
       </c>
       <c r="E37" s="32">
         <f>C37*D37</f>
@@ -3354,7 +3354,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F38:AC38)))</f>
+        <f>COUNTA(F38:AC38)</f>
       </c>
       <c r="E38" s="32">
         <f>C38*D38</f>
@@ -3401,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F39:AC39)))</f>
+        <f>COUNTA(F39:AC39)</f>
       </c>
       <c r="E39" s="32">
         <f>C39*D39</f>
@@ -3448,7 +3448,7 @@
         <v>80</v>
       </c>
       <c r="D40" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F40:AC40)))</f>
+        <f>COUNTA(F40:AC40)</f>
       </c>
       <c r="E40" s="32">
         <f>C40*D40</f>
@@ -3495,7 +3495,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F41:AC41)))</f>
+        <f>COUNTA(F41:AC41)</f>
       </c>
       <c r="E41" s="32">
         <f>C41*D41</f>
@@ -3542,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="D42" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F42:AC42)))</f>
+        <f>COUNTA(F42:AC42)</f>
       </c>
       <c r="E42" s="32">
         <f>C42*D42</f>
@@ -3589,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F43:AC43)))</f>
+        <f>COUNTA(F43:AC43)</f>
       </c>
       <c r="E43" s="32">
         <f>C43*D43</f>
@@ -3636,7 +3636,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F44:AC44)))</f>
+        <f>COUNTA(F44:AC44)</f>
       </c>
       <c r="E44" s="32">
         <f>C44*D44</f>
@@ -3683,7 +3683,7 @@
         <v>80</v>
       </c>
       <c r="D45" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F45:AC45)))</f>
+        <f>COUNTA(F45:AC45)</f>
       </c>
       <c r="E45" s="32">
         <f>C45*D45</f>
@@ -6057,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F5:AC5)))</f>
+        <f>COUNTA(F5:AC5)</f>
       </c>
       <c r="E5" s="32">
         <f>C5*D5</f>
@@ -6110,7 +6110,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F6:AC6)))</f>
+        <f>COUNTA(F6:AC6)</f>
       </c>
       <c r="E6" s="32">
         <f>C6*D6</f>
@@ -6163,7 +6163,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F7:AC7)))</f>
+        <f>COUNTA(F7:AC7)</f>
       </c>
       <c r="E7" s="32">
         <f>C7*D7</f>
@@ -6210,7 +6210,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F8:AC8)))</f>
+        <f>COUNTA(F8:AC8)</f>
       </c>
       <c r="E8" s="32">
         <f>C8*D8</f>
@@ -6257,7 +6257,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F9:AC9)))</f>
+        <f>COUNTA(F9:AC9)</f>
       </c>
       <c r="E9" s="32">
         <f>C9*D9</f>
@@ -6304,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F10:AC10)))</f>
+        <f>COUNTA(F10:AC10)</f>
       </c>
       <c r="E10" s="32">
         <f>C10*D10</f>
@@ -6351,7 +6351,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F11:AC11)))</f>
+        <f>COUNTA(F11:AC11)</f>
       </c>
       <c r="E11" s="32">
         <f>C11*D11</f>
@@ -6398,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="D12" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F12:AC12)))</f>
+        <f>COUNTA(F12:AC12)</f>
       </c>
       <c r="E12" s="32">
         <f>C12*D12</f>
@@ -6445,7 +6445,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F13:AC13)))</f>
+        <f>COUNTA(F13:AC13)</f>
       </c>
       <c r="E13" s="32">
         <f>C13*D13</f>
@@ -6492,7 +6492,7 @@
         <v>80</v>
       </c>
       <c r="D14" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F14:AC14)))</f>
+        <f>COUNTA(F14:AC14)</f>
       </c>
       <c r="E14" s="32">
         <f>C14*D14</f>
@@ -6539,7 +6539,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="32">
-        <f>SUMPRODUCT(NOT(ISBLANK(F15:AC15)))</f>
+        <f>COUNTA(F15:AC15)</f>
       </c>
       <c r="E15" s="32">
         <f>C15*D15</f>
@@ -6586,7 +6586,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F16:AC16)))</f>
+        <f>COUNTA(F16:AC16)</f>
       </c>
       <c r="E16" s="27">
         <f>C16*D16</f>
@@ -6633,7 +6633,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F17:AC17)))</f>
+        <f>COUNTA(F17:AC17)</f>
       </c>
       <c r="E17" s="27">
         <f>C17*D17</f>
@@ -6680,7 +6680,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F18:AC18)))</f>
+        <f>COUNTA(F18:AC18)</f>
       </c>
       <c r="E18" s="27">
         <f>C18*D18</f>
@@ -6727,7 +6727,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F19:AC19)))</f>
+        <f>COUNTA(F19:AC19)</f>
       </c>
       <c r="E19" s="27">
         <f>C19*D19</f>
@@ -6774,7 +6774,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F20:AC20)))</f>
+        <f>COUNTA(F20:AC20)</f>
       </c>
       <c r="E20" s="27">
         <f>C20*D20</f>
@@ -6821,7 +6821,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F21:AC21)))</f>
+        <f>COUNTA(F21:AC21)</f>
       </c>
       <c r="E21" s="27">
         <f>C21*D21</f>
@@ -6868,7 +6868,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="27">
-        <f>SUMPRODUCT(NOT(ISBLANK(F22:AC22)))</f>
+        <f>COUNTA(F22:AC22)</f>
       </c>
       <c r="E22" s="27">
         <f>C22*D22</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1363,14 +1363,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFD68F96"/>
+      <color rgb="FFE192B6"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1383,28 +1383,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF586776"/>
+      <color rgb="FF79B0EA"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFF3F7F9"/>
+      <color rgb="FFE7E8DE"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6B7478"/>
+      <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6F6150"/>
+      <color rgb="FF727069"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1418,32 +1418,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9F1F4"/>
+        <fgColor rgb="FFDCDECF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACBBC1"/>
+        <fgColor rgb="FF9DA188"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCDDFE6"/>
+        <fgColor rgb="FFC6CAB1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDE1D2"/>
+        <fgColor rgb="FFEDEAE3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBFC"/>
+        <fgColor rgb="FFF1F2EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAF7F3"/>
+        <fgColor rgb="FFF8F7F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1459,10 +1459,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC5BBBB"/>
+        <color rgb="FFC6C5C5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,7 @@
     <dxf>
       <font>
         <sz val="12"/>
-        <color rgb="FFD68F96"/>
+        <color rgb="FFE192B6"/>
         <name val="Calibri"/>
         <family val="1"/>
         <b/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1363,7 +1363,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFE192B6"/>
+      <color rgb="FFDEAEC4"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1383,7 +1383,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF79B0EA"/>
+      <color rgb="FFA2C1E3"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1459,10 +1459,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFC6C5C5"/>
+        <color rgb="FFC5C3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C5C5"/>
+        <color rgb="FFC5C3C3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1550,7 @@
     <dxf>
       <font>
         <sz val="12"/>
-        <color rgb="FFE192B6"/>
+        <color rgb="FFDEAEC4"/>
         <name val="Calibri"/>
         <family val="1"/>
         <b/>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -140,13 +140,13 @@
     <t>Cerberus</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Pandora</t>
+  </si>
+  <si>
     <t>Le Requin</t>
-  </si>
-  <si>
-    <t>Pandora</t>
-  </si>
-  <si>
-    <t>Hercules</t>
   </si>
   <si>
     <t>Mercury</t>
@@ -3210,7 +3210,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -50,12 +50,12 @@
     <t>2. Enter player names</t>
   </si>
   <si>
+    <t>L’Océan</t>
+  </si>
+  <si>
     <t>Santisima</t>
   </si>
   <si>
-    <t>L’Océan</t>
-  </si>
-  <si>
     <t>Victory</t>
   </si>
   <si>
@@ -71,1054 +71,1054 @@
     <t>Bellona</t>
   </si>
   <si>
+    <t>Wasa</t>
+  </si>
+  <si>
     <t>3rd Rate</t>
   </si>
   <si>
-    <t>Wasa</t>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Constitution Classic</t>
   </si>
   <si>
     <t>Agamemnon</t>
   </si>
   <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Constitution Classic</t>
-  </si>
-  <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
     <t>Ingermanland</t>
   </si>
   <si>
+    <t>Endymion</t>
+  </si>
+  <si>
+    <t>Trincomalee</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
     <t>Indefatigable</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Endymion</t>
-  </si>
-  <si>
-    <t>Trincomalee</t>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Renommee</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
   </si>
   <si>
     <t>Essex</t>
   </si>
   <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
     <t>Indiaman</t>
   </si>
   <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>L’Hermione</t>
   </si>
   <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Renommee</t>
-  </si>
-  <si>
-    <t>Cerberus</t>
-  </si>
-  <si>
-    <t>Hercules</t>
+    <t>Le Requin</t>
+  </si>
+  <si>
+    <t>Prince de Neufchatel</t>
   </si>
   <si>
     <t>Pandora</t>
   </si>
   <si>
-    <t>Le Requin</t>
+    <t>Rattlesnake Heavy</t>
+  </si>
+  <si>
+    <t>Mortar Brig</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Aguadilla</t>
+  </si>
+  <si>
+    <t>All Saints</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Almirante</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Amalienborg</t>
+  </si>
+  <si>
+    <t>Ambergrease Caye</t>
+  </si>
+  <si>
+    <t>Apalachicola</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>Arecibo</t>
+  </si>
+  <si>
+    <t>Atchafalaya</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Ayamonte</t>
+  </si>
+  <si>
+    <t>Ays</t>
+  </si>
+  <si>
+    <t>Azua</t>
+  </si>
+  <si>
+    <t>Bahía Escocesa</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Baní</t>
+  </si>
+  <si>
+    <t>Baracoa</t>
+  </si>
+  <si>
+    <t>Barahona</t>
+  </si>
+  <si>
+    <t>Barataria</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Basse-Terre</t>
+  </si>
+  <si>
+    <t>Basseterre Town</t>
+  </si>
+  <si>
+    <t>Batabanó</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bensalem</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>Biloxi</t>
+  </si>
+  <si>
+    <t>Black River</t>
+  </si>
+  <si>
+    <t>Bluefields</t>
+  </si>
+  <si>
+    <t>Bonacca</t>
+  </si>
+  <si>
+    <t>Brangman’s Bluff</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cabo Cañaveral</t>
+  </si>
+  <si>
+    <t>Cabo Rojo</t>
+  </si>
+  <si>
+    <t>Cabo de la Vela</t>
+  </si>
+  <si>
+    <t>Calcasieu</t>
+  </si>
+  <si>
+    <t>Calobelo</t>
+  </si>
+  <si>
+    <t>Camp du Roy</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Canalete</t>
+  </si>
+  <si>
+    <t>Cap-Français</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Cariaco</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Carriacou</t>
+  </si>
+  <si>
+    <t>Cartagena de Indias</t>
+  </si>
+  <si>
+    <t>Carúpano</t>
+  </si>
+  <si>
+    <t>Casigua</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Cayman Brac</t>
+  </si>
+  <si>
+    <t>Cayo Biscayno</t>
+  </si>
+  <si>
+    <t>Cayo Romano</t>
+  </si>
+  <si>
+    <t>Cayo de Sal</t>
+  </si>
+  <si>
+    <t>Cayo del Anclote</t>
+  </si>
+  <si>
+    <t>Caño Araguabisi</t>
+  </si>
+  <si>
+    <t>Caño Araguao</t>
+  </si>
+  <si>
+    <t>Caño Macareo</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Champotón</t>
+  </si>
+  <si>
+    <t>Charles Town</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Christiansted</t>
+  </si>
+  <si>
+    <t>Codrington</t>
+  </si>
+  <si>
+    <t>Cojoro</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Congrios</t>
+  </si>
+  <si>
+    <t>Conil</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Conttoy</t>
+  </si>
+  <si>
+    <t>Coquibacoa</t>
+  </si>
+  <si>
+    <t>Coral Bay</t>
+  </si>
+  <si>
+    <t>Coro</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Cul-de-Sac</t>
+  </si>
+  <si>
+    <t>Cumaná</t>
+  </si>
+  <si>
+    <t>Cuyo</t>
+  </si>
+  <si>
+    <t>Dariena</t>
+  </si>
+  <si>
+    <t>Deshaies</t>
+  </si>
+  <si>
+    <t>El Rancho</t>
+  </si>
+  <si>
+    <t>El Soco</t>
+  </si>
+  <si>
+    <t>El Toco</t>
+  </si>
+  <si>
+    <t>Encontrados</t>
+  </si>
+  <si>
+    <t>English Harbour</t>
+  </si>
+  <si>
+    <t>Espíritu Santo</t>
+  </si>
+  <si>
+    <t>Esteros</t>
+  </si>
+  <si>
+    <t>Fajardo</t>
+  </si>
+  <si>
+    <t>Flatts</t>
+  </si>
+  <si>
+    <t>Fort Baai</t>
+  </si>
+  <si>
+    <t>Fort Oranje</t>
+  </si>
+  <si>
+    <t>Fort Zoutman</t>
+  </si>
+  <si>
+    <t>Fort-Dauphin</t>
+  </si>
+  <si>
+    <t>Fort-Royal</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>Galdonas</t>
+  </si>
+  <si>
+    <t>Gasparilla</t>
+  </si>
+  <si>
+    <t>George Town</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Grand Anse</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Great Corn</t>
+  </si>
+  <si>
+    <t>Great River</t>
+  </si>
+  <si>
+    <t>Grindstone</t>
+  </si>
+  <si>
+    <t>Guamá Sevilla</t>
+  </si>
+  <si>
+    <t>Guayaguayare</t>
+  </si>
+  <si>
+    <t>Guayama</t>
+  </si>
+  <si>
+    <t>Guibara</t>
+  </si>
+  <si>
+    <t>Gustavia</t>
+  </si>
+  <si>
+    <t>Guánica</t>
+  </si>
+  <si>
+    <t>Güiria</t>
+  </si>
+  <si>
+    <t>Hat Island</t>
+  </si>
+  <si>
+    <t>Higüey</t>
+  </si>
+  <si>
+    <t>Islamorada</t>
+  </si>
+  <si>
+    <t>Island Harbour</t>
+  </si>
+  <si>
+    <t>Jacmel</t>
+  </si>
+  <si>
+    <t>Jagua</t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t>Jérémie</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Kidd’s Harbour</t>
+  </si>
+  <si>
+    <t>Kingston / Port Royal</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>La Blanquilla</t>
+  </si>
+  <si>
+    <t>La Désirade</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>La Isabela</t>
+  </si>
+  <si>
+    <t>La Mona</t>
+  </si>
+  <si>
+    <t>La Moussette</t>
+  </si>
+  <si>
+    <t>La Navasse</t>
+  </si>
+  <si>
+    <t>La Orchila</t>
+  </si>
+  <si>
+    <t>La Tortue</t>
+  </si>
+  <si>
+    <t>La Trinité</t>
+  </si>
+  <si>
+    <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Las Aves</t>
+  </si>
+  <si>
+    <t>Las Tortugas</t>
+  </si>
+  <si>
+    <t>Le Moule</t>
+  </si>
+  <si>
+    <t>Les Cayes</t>
+  </si>
+  <si>
+    <t>Les Gonaïves</t>
+  </si>
+  <si>
+    <t>Little Cayman</t>
+  </si>
+  <si>
+    <t>Little Inagua</t>
+  </si>
+  <si>
+    <t>Little River</t>
+  </si>
+  <si>
+    <t>Lorimers</t>
+  </si>
+  <si>
+    <t>Léogane</t>
+  </si>
+  <si>
+    <t>Macanao</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Manataca</t>
+  </si>
+  <si>
+    <t>Mandinga</t>
+  </si>
+  <si>
+    <t>Mantua</t>
+  </si>
+  <si>
+    <t>Manzanilla</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Marigot</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>Mitara</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Monte Cristi</t>
+  </si>
+  <si>
+    <t>Montego Bay</t>
+  </si>
+  <si>
+    <t>Morro Chico</t>
+  </si>
+  <si>
+    <t>Mortimer Town</t>
+  </si>
+  <si>
+    <t>Mugeres</t>
+  </si>
+  <si>
+    <t>Naparima</t>
+  </si>
+  <si>
+    <t>New Edinburgh</t>
+  </si>
+  <si>
+    <t>New Smyrna</t>
+  </si>
+  <si>
+    <t>Nippes</t>
+  </si>
+  <si>
+    <t>North Inlet</t>
+  </si>
+  <si>
+    <t>Nouvelle-Orléans</t>
+  </si>
+  <si>
+    <t>Nueva Barcelona</t>
+  </si>
+  <si>
+    <t>Nuevitas</t>
+  </si>
+  <si>
+    <t>Ocean Bight</t>
+  </si>
+  <si>
+    <t>Old Providence</t>
+  </si>
+  <si>
+    <t>Omoa</t>
+  </si>
+  <si>
+    <t>Oranjestad</t>
+  </si>
+  <si>
+    <t>Pampatar</t>
+  </si>
+  <si>
+    <t>Parrot Cay</t>
+  </si>
+  <si>
+    <t>Pasaje</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Penzacola</t>
+  </si>
+  <si>
+    <t>Perijá</t>
+  </si>
+  <si>
+    <t>Philipsburg</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Pitt’s Town</t>
+  </si>
+  <si>
+    <t>Placentia</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Playón</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Pointe-à-Pitre</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Port Antonio</t>
+  </si>
+  <si>
+    <t>Port Morant</t>
+  </si>
+  <si>
+    <t>Port-Louis</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Port-de-Paix</t>
+  </si>
+  <si>
+    <t>Portillo</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Prinzapolka</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>Puerto Escondido</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>Puerto Real</t>
+  </si>
+  <si>
+    <t>Puerto de España</t>
+  </si>
+  <si>
+    <t>Puerto de Nipe</t>
+  </si>
+  <si>
+    <t>Puerto del Padre</t>
+  </si>
+  <si>
+    <t>Píritu</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Road Town</t>
+  </si>
+  <si>
+    <t>Robras</t>
+  </si>
+  <si>
+    <t>Rosaly</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Ruatan</t>
+  </si>
+  <si>
+    <t>Río Chico</t>
+  </si>
+  <si>
+    <t>Río Seco</t>
+  </si>
+  <si>
+    <t>Río Tocuyo</t>
+  </si>
+  <si>
+    <t>Río de la Hacha</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Saint Ann</t>
+  </si>
+  <si>
+    <t>Saint George</t>
+  </si>
+  <si>
+    <t>Saint George’s Town</t>
+  </si>
+  <si>
+    <t>Saint John’s</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Marys</t>
+  </si>
+  <si>
+    <t>Saint-François</t>
+  </si>
+  <si>
+    <t>Saint-Louis</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Marc</t>
+  </si>
+  <si>
+    <t>Saint-Nicolas</t>
+  </si>
+  <si>
+    <t>Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Sale-Trou</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Samaná</t>
+  </si>
+  <si>
+    <t>San Agustín</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Juan del Norte</t>
+  </si>
+  <si>
+    <t>San Lazaro</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>San Sebastian</t>
+  </si>
+  <si>
+    <t>San Timoteo</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Sandy Bay</t>
+  </si>
+  <si>
+    <t>Sandy Hill</t>
+  </si>
+  <si>
+    <t>Sant Iago</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santanillas</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Santo Tomé de Guayana</t>
+  </si>
+  <si>
+    <t>Sarazota</t>
+  </si>
+  <si>
+    <t>Savanna la Mar</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Selam</t>
+  </si>
+  <si>
+    <t>Sinamaica</t>
+  </si>
+  <si>
+    <t>Sisal</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>Soto La Marina</t>
+  </si>
+  <si>
+    <t>Spanish Town</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Swannsborough</t>
+  </si>
+  <si>
+    <t>Talamanca</t>
+  </si>
+  <si>
+    <t>Tamiagua</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Tantun Cuzamil</t>
+  </si>
+  <si>
+    <t>Terre-de-Bas</t>
+  </si>
+  <si>
+    <t>Terrebonne</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Tolú</t>
+  </si>
+  <si>
+    <t>Tordo</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Triunfo de la Cruz</t>
+  </si>
+  <si>
+    <t>Truxillo</t>
+  </si>
+  <si>
+    <t>Tulum</t>
+  </si>
+  <si>
+    <t>Tumbado</t>
+  </si>
+  <si>
+    <t>Turneffe</t>
+  </si>
+  <si>
+    <t>Tuspan</t>
+  </si>
+  <si>
+    <t>Vera Cruz</t>
+  </si>
+  <si>
+    <t>Vermiou</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Vieques</t>
+  </si>
+  <si>
+    <t>Vieux-Fort</t>
+  </si>
+  <si>
+    <t>Wantlands Ferry</t>
+  </si>
+  <si>
+    <t>Willemstad</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Xpu Ha</t>
+  </si>
+  <si>
+    <t>Yaguaraparo</t>
+  </si>
+  <si>
+    <t>Ysil</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Mercury</t>
   </si>
   <si>
-    <t>Mortar Brig</t>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
+    <t>Snow</t>
   </si>
   <si>
     <t>NavyBrig</t>
   </si>
   <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Prince de Neufchatel</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
-  </si>
-  <si>
-    <t>Rattlesnake Heavy</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Aguadilla</t>
-  </si>
-  <si>
-    <t>All Saints</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Almirante</t>
-  </si>
-  <si>
-    <t>Alvarado</t>
-  </si>
-  <si>
-    <t>Amalienborg</t>
-  </si>
-  <si>
-    <t>Ambergrease Caye</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>Aransas</t>
-  </si>
-  <si>
-    <t>Arecibo</t>
-  </si>
-  <si>
-    <t>Atchafalaya</t>
-  </si>
-  <si>
-    <t>Atwood</t>
-  </si>
-  <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Ayamonte</t>
-  </si>
-  <si>
-    <t>Ays</t>
-  </si>
-  <si>
-    <t>Azua</t>
-  </si>
-  <si>
-    <t>Bahía Escocesa</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Baní</t>
-  </si>
-  <si>
-    <t>Baracoa</t>
-  </si>
-  <si>
-    <t>Barahona</t>
-  </si>
-  <si>
-    <t>Barataria</t>
-  </si>
-  <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
-    <t>Basse-Terre</t>
-  </si>
-  <si>
-    <t>Basseterre Town</t>
-  </si>
-  <si>
-    <t>Batabanó</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Bensalem</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>Biloxi</t>
-  </si>
-  <si>
-    <t>Black River</t>
-  </si>
-  <si>
-    <t>Bluefields</t>
-  </si>
-  <si>
-    <t>Bonacca</t>
-  </si>
-  <si>
-    <t>Brangman’s Bluff</t>
-  </si>
-  <si>
-    <t>Bridgetown</t>
-  </si>
-  <si>
-    <t>Brunswick</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Cabo Cañaveral</t>
-  </si>
-  <si>
-    <t>Cabo Rojo</t>
-  </si>
-  <si>
-    <t>Cabo de la Vela</t>
-  </si>
-  <si>
-    <t>Calcasieu</t>
-  </si>
-  <si>
-    <t>Calobelo</t>
-  </si>
-  <si>
-    <t>Camp du Roy</t>
-  </si>
-  <si>
-    <t>Campeche</t>
-  </si>
-  <si>
-    <t>Canalete</t>
-  </si>
-  <si>
-    <t>Cap-Français</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Cariaco</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Carriacou</t>
-  </si>
-  <si>
-    <t>Cartagena de Indias</t>
-  </si>
-  <si>
-    <t>Carúpano</t>
-  </si>
-  <si>
-    <t>Casigua</t>
-  </si>
-  <si>
-    <t>Castries</t>
-  </si>
-  <si>
-    <t>Cayman Brac</t>
-  </si>
-  <si>
-    <t>Cayo Biscayno</t>
-  </si>
-  <si>
-    <t>Cayo Romano</t>
-  </si>
-  <si>
-    <t>Cayo de Sal</t>
-  </si>
-  <si>
-    <t>Cayo del Anclote</t>
-  </si>
-  <si>
-    <t>Caño Araguabisi</t>
-  </si>
-  <si>
-    <t>Caño Araguao</t>
-  </si>
-  <si>
-    <t>Caño Macareo</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Champotón</t>
-  </si>
-  <si>
-    <t>Charles Town</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Christiansted</t>
-  </si>
-  <si>
-    <t>Codrington</t>
-  </si>
-  <si>
-    <t>Cojoro</t>
-  </si>
-  <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Congrios</t>
-  </si>
-  <si>
-    <t>Conil</t>
-  </si>
-  <si>
-    <t>Constance</t>
-  </si>
-  <si>
-    <t>Conttoy</t>
-  </si>
-  <si>
-    <t>Coquibacoa</t>
-  </si>
-  <si>
-    <t>Coral Bay</t>
-  </si>
-  <si>
-    <t>Coro</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>Cul-de-Sac</t>
-  </si>
-  <si>
-    <t>Cumaná</t>
-  </si>
-  <si>
-    <t>Cuyo</t>
-  </si>
-  <si>
-    <t>Dariena</t>
-  </si>
-  <si>
-    <t>Deshaies</t>
-  </si>
-  <si>
-    <t>El Rancho</t>
-  </si>
-  <si>
-    <t>El Soco</t>
-  </si>
-  <si>
-    <t>El Toco</t>
-  </si>
-  <si>
-    <t>Encontrados</t>
-  </si>
-  <si>
-    <t>English Harbour</t>
-  </si>
-  <si>
-    <t>Espíritu Santo</t>
-  </si>
-  <si>
-    <t>Esteros</t>
-  </si>
-  <si>
-    <t>Fajardo</t>
-  </si>
-  <si>
-    <t>Flatts</t>
-  </si>
-  <si>
-    <t>Fort Baai</t>
-  </si>
-  <si>
-    <t>Fort Oranje</t>
-  </si>
-  <si>
-    <t>Fort Zoutman</t>
-  </si>
-  <si>
-    <t>Fort-Dauphin</t>
-  </si>
-  <si>
-    <t>Fort-Royal</t>
-  </si>
-  <si>
-    <t>Frederiksted</t>
-  </si>
-  <si>
-    <t>Galdonas</t>
-  </si>
-  <si>
-    <t>Gasparilla</t>
-  </si>
-  <si>
-    <t>George Town</t>
-  </si>
-  <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Gracias a Dios</t>
-  </si>
-  <si>
-    <t>Grand Anse</t>
-  </si>
-  <si>
-    <t>Grand Turk</t>
-  </si>
-  <si>
-    <t>Great Corn</t>
-  </si>
-  <si>
-    <t>Great River</t>
-  </si>
-  <si>
-    <t>Grindstone</t>
-  </si>
-  <si>
-    <t>Guamá Sevilla</t>
-  </si>
-  <si>
-    <t>Guayaguayare</t>
-  </si>
-  <si>
-    <t>Guayama</t>
-  </si>
-  <si>
-    <t>Guibara</t>
-  </si>
-  <si>
-    <t>Gustavia</t>
-  </si>
-  <si>
-    <t>Guánica</t>
-  </si>
-  <si>
-    <t>Güiria</t>
-  </si>
-  <si>
-    <t>Hat Island</t>
-  </si>
-  <si>
-    <t>Higüey</t>
-  </si>
-  <si>
-    <t>Islamorada</t>
-  </si>
-  <si>
-    <t>Island Harbour</t>
-  </si>
-  <si>
-    <t>Jacmel</t>
-  </si>
-  <si>
-    <t>Jagua</t>
-  </si>
-  <si>
-    <t>Jobe</t>
-  </si>
-  <si>
-    <t>Jérémie</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Kidd’s Harbour</t>
-  </si>
-  <si>
-    <t>Kingston / Port Royal</t>
-  </si>
-  <si>
-    <t>Kingstown</t>
-  </si>
-  <si>
-    <t>La Blanquilla</t>
-  </si>
-  <si>
-    <t>La Désirade</t>
-  </si>
-  <si>
-    <t>La Habana</t>
-  </si>
-  <si>
-    <t>La Isabela</t>
-  </si>
-  <si>
-    <t>La Mona</t>
-  </si>
-  <si>
-    <t>La Moussette</t>
-  </si>
-  <si>
-    <t>La Navasse</t>
-  </si>
-  <si>
-    <t>La Orchila</t>
-  </si>
-  <si>
-    <t>La Tortue</t>
-  </si>
-  <si>
-    <t>La Trinité</t>
-  </si>
-  <si>
-    <t>Lagunillas</t>
-  </si>
-  <si>
-    <t>Las Aves</t>
-  </si>
-  <si>
-    <t>Las Tortugas</t>
-  </si>
-  <si>
-    <t>Le Moule</t>
-  </si>
-  <si>
-    <t>Les Cayes</t>
-  </si>
-  <si>
-    <t>Les Gonaïves</t>
-  </si>
-  <si>
-    <t>Little Cayman</t>
-  </si>
-  <si>
-    <t>Little Inagua</t>
-  </si>
-  <si>
-    <t>Little River</t>
-  </si>
-  <si>
-    <t>Lorimers</t>
-  </si>
-  <si>
-    <t>Léogane</t>
-  </si>
-  <si>
-    <t>Macanao</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Manataca</t>
-  </si>
-  <si>
-    <t>Mandinga</t>
-  </si>
-  <si>
-    <t>Mantua</t>
-  </si>
-  <si>
-    <t>Manzanilla</t>
-  </si>
-  <si>
-    <t>Maracaibo</t>
-  </si>
-  <si>
-    <t>Mariel</t>
-  </si>
-  <si>
-    <t>Marigot</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Matanzas</t>
-  </si>
-  <si>
-    <t>Matina</t>
-  </si>
-  <si>
-    <t>Misteriosa</t>
-  </si>
-  <si>
-    <t>Mitara</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Monte Cristi</t>
-  </si>
-  <si>
-    <t>Montego Bay</t>
-  </si>
-  <si>
-    <t>Morro Chico</t>
-  </si>
-  <si>
-    <t>Mortimer Town</t>
-  </si>
-  <si>
-    <t>Mugeres</t>
-  </si>
-  <si>
-    <t>Naparima</t>
-  </si>
-  <si>
-    <t>New Edinburgh</t>
-  </si>
-  <si>
-    <t>New Smyrna</t>
-  </si>
-  <si>
-    <t>Nippes</t>
-  </si>
-  <si>
-    <t>North Inlet</t>
-  </si>
-  <si>
-    <t>Nouvelle-Orléans</t>
-  </si>
-  <si>
-    <t>Nueva Barcelona</t>
-  </si>
-  <si>
-    <t>Nuevitas</t>
-  </si>
-  <si>
-    <t>Ocean Bight</t>
-  </si>
-  <si>
-    <t>Old Providence</t>
-  </si>
-  <si>
-    <t>Omoa</t>
-  </si>
-  <si>
-    <t>Oranjestad</t>
-  </si>
-  <si>
-    <t>Pampatar</t>
-  </si>
-  <si>
-    <t>Parrot Cay</t>
-  </si>
-  <si>
-    <t>Pasaje</t>
-  </si>
-  <si>
-    <t>Pedernales</t>
-  </si>
-  <si>
-    <t>Penzacola</t>
-  </si>
-  <si>
-    <t>Perijá</t>
-  </si>
-  <si>
-    <t>Philipsburg</t>
-  </si>
-  <si>
-    <t>Pinar del Río</t>
-  </si>
-  <si>
-    <t>Pitt’s Town</t>
-  </si>
-  <si>
-    <t>Placentia</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Playón</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Pointe-à-Pitre</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Port Antonio</t>
-  </si>
-  <si>
-    <t>Port Morant</t>
-  </si>
-  <si>
-    <t>Port-Louis</t>
-  </si>
-  <si>
-    <t>Port-au-Prince</t>
-  </si>
-  <si>
-    <t>Port-de-Paix</t>
-  </si>
-  <si>
-    <t>Portillo</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Prinzapolka</t>
-  </si>
-  <si>
-    <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Puerto Escondido</t>
-  </si>
-  <si>
-    <t>Puerto Plata</t>
-  </si>
-  <si>
-    <t>Puerto Real</t>
-  </si>
-  <si>
-    <t>Puerto de España</t>
-  </si>
-  <si>
-    <t>Puerto de Nipe</t>
-  </si>
-  <si>
-    <t>Puerto del Padre</t>
-  </si>
-  <si>
-    <t>Píritu</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>Road Town</t>
-  </si>
-  <si>
-    <t>Robras</t>
-  </si>
-  <si>
-    <t>Rosaly</t>
-  </si>
-  <si>
-    <t>Roseau</t>
-  </si>
-  <si>
-    <t>Ruatan</t>
-  </si>
-  <si>
-    <t>Río Chico</t>
-  </si>
-  <si>
-    <t>Río Seco</t>
-  </si>
-  <si>
-    <t>Río Tocuyo</t>
-  </si>
-  <si>
-    <t>Río de la Hacha</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>Saint Ann</t>
-  </si>
-  <si>
-    <t>Saint George</t>
-  </si>
-  <si>
-    <t>Saint George’s Town</t>
-  </si>
-  <si>
-    <t>Saint John’s</t>
-  </si>
-  <si>
-    <t>Saint Joseph</t>
-  </si>
-  <si>
-    <t>Saint Marys</t>
-  </si>
-  <si>
-    <t>Saint-François</t>
-  </si>
-  <si>
-    <t>Saint-Louis</t>
-  </si>
-  <si>
-    <t>Saint-Malo</t>
-  </si>
-  <si>
-    <t>Saint-Marc</t>
-  </si>
-  <si>
-    <t>Saint-Nicolas</t>
-  </si>
-  <si>
-    <t>Saint-Pierre</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Sale-Trou</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Samaná</t>
-  </si>
-  <si>
-    <t>San Agustín</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>San Juan del Norte</t>
-  </si>
-  <si>
-    <t>San Lazaro</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>San Sebastian</t>
-  </si>
-  <si>
-    <t>San Timoteo</t>
-  </si>
-  <si>
-    <t>Sancti Spíritus</t>
-  </si>
-  <si>
-    <t>Sandy Bay</t>
-  </si>
-  <si>
-    <t>Sandy Hill</t>
-  </si>
-  <si>
-    <t>Sant Iago</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa Marta</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Santanillas</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Santo Tomás</t>
-  </si>
-  <si>
-    <t>Santo Tomé de Guayana</t>
-  </si>
-  <si>
-    <t>Sarazota</t>
-  </si>
-  <si>
-    <t>Savanna la Mar</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>Scarborough</t>
-  </si>
-  <si>
-    <t>Selam</t>
-  </si>
-  <si>
-    <t>Sinamaica</t>
-  </si>
-  <si>
-    <t>Sisal</t>
-  </si>
-  <si>
-    <t>Somerset</t>
-  </si>
-  <si>
-    <t>Soto La Marina</t>
-  </si>
-  <si>
-    <t>Spanish Town</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Swannsborough</t>
-  </si>
-  <si>
-    <t>Talamanca</t>
-  </si>
-  <si>
-    <t>Tamiagua</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>Tantun Cuzamil</t>
-  </si>
-  <si>
-    <t>Terre-de-Bas</t>
-  </si>
-  <si>
-    <t>Terrebonne</t>
-  </si>
-  <si>
-    <t>Tiburon</t>
-  </si>
-  <si>
-    <t>Tolú</t>
-  </si>
-  <si>
-    <t>Tordo</t>
-  </si>
-  <si>
-    <t>Trinidad</t>
-  </si>
-  <si>
-    <t>Triunfo de la Cruz</t>
-  </si>
-  <si>
-    <t>Truxillo</t>
-  </si>
-  <si>
-    <t>Tulum</t>
-  </si>
-  <si>
-    <t>Tumbado</t>
-  </si>
-  <si>
-    <t>Turneffe</t>
-  </si>
-  <si>
-    <t>Tuspan</t>
-  </si>
-  <si>
-    <t>Vera Cruz</t>
-  </si>
-  <si>
-    <t>Vermiou</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Vieques</t>
-  </si>
-  <si>
-    <t>Vieux-Fort</t>
-  </si>
-  <si>
-    <t>Wantlands Ferry</t>
-  </si>
-  <si>
-    <t>Willemstad</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Xpu Ha</t>
-  </si>
-  <si>
-    <t>Yaguaraparo</t>
-  </si>
-  <si>
-    <t>Ysil</t>
-  </si>
-  <si>
-    <t>Fritz</t>
-  </si>
-  <si>
-    <t>Franz</t>
-  </si>
-  <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Brig</t>
   </si>
   <si>
+    <t>GunBoat</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Privateer</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
     <t>Pickle</t>
-  </si>
-  <si>
-    <t>Cutter</t>
-  </si>
-  <si>
-    <t>GunBoat</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>Privateer</t>
   </si>
   <si>
     <t>Yacht</t>
@@ -1637,7 +1637,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="0" t="n">
         <v>8210</v>
@@ -1682,7 +1682,7 @@
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>5090</v>
@@ -1731,7 +1731,7 @@
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>5040</v>
@@ -1742,10 +1742,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D45)</f>
+        <f>SUM(D5:D41)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E45)</f>
+        <f>SUM(E5:E41)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1774,7 +1774,7 @@
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE4" s="0" t="n">
         <v>2670</v>
@@ -1788,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>605</v>
+        <v>900</v>
       </c>
       <c r="D5" s="27">
         <f>COUNTA(F5:AC5)</f>
@@ -1797,13 +1797,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -1827,7 +1827,7 @@
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
       <c r="AD5" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>7780</v>
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="D6" s="27">
         <f>COUNTA(F6:AC6)</f>
@@ -1850,13 +1850,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
@@ -1880,7 +1880,7 @@
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>7920</v>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>515</v>
+        <v>780</v>
       </c>
       <c r="D7" s="27">
         <f>COUNTA(F7:AC7)</f>
@@ -1927,7 +1927,7 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>2720</v>
@@ -1974,7 +1974,7 @@
       <c r="AB8" s="34"/>
       <c r="AC8" s="34"/>
       <c r="AD8" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>2720</v>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>
@@ -2021,7 +2021,7 @@
       <c r="AB9" s="34"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>2620</v>
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D10" s="32">
         <f>COUNTA(F10:AC10)</f>
@@ -2068,7 +2068,7 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>8210</v>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="D11" s="27">
         <f>COUNTA(F11:AC11)</f>
@@ -2115,7 +2115,7 @@
       <c r="AB11" s="29"/>
       <c r="AC11" s="29"/>
       <c r="AD11" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>2720</v>
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="27" t="n">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="D12" s="27">
         <f>COUNTA(F12:AC12)</f>
@@ -2162,7 +2162,7 @@
       <c r="AB12" s="29"/>
       <c r="AC12" s="29"/>
       <c r="AD12" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>2720</v>
@@ -2176,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="27" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D13" s="27">
         <f>COUNTA(F13:AC13)</f>
@@ -2209,7 +2209,7 @@
       <c r="AB13" s="29"/>
       <c r="AC13" s="29"/>
       <c r="AD13" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>2570</v>
@@ -2223,7 +2223,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -2256,7 +2256,7 @@
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>2570</v>
@@ -2270,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -2303,7 +2303,7 @@
       <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
       <c r="AD15" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>5140</v>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D16" s="32">
         <f>COUNTA(F16:AC16)</f>
@@ -2350,7 +2350,7 @@
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
       <c r="AD16" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>7920</v>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D17" s="32">
         <f>COUNTA(F17:AC17)</f>
@@ -2397,7 +2397,7 @@
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>2720</v>
@@ -2411,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="D18" s="32">
         <f>COUNTA(F18:AC18)</f>
@@ -2444,7 +2444,7 @@
       <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
       <c r="AD18" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>7780</v>
@@ -2458,7 +2458,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -2491,7 +2491,7 @@
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
       <c r="AD19" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>5520</v>
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -2538,7 +2538,7 @@
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
       <c r="AD20" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>7780</v>
@@ -2552,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -2585,7 +2585,7 @@
       <c r="AB21" s="29"/>
       <c r="AC21" s="29"/>
       <c r="AD21" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>10560</v>
@@ -2599,7 +2599,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>
@@ -2632,7 +2632,7 @@
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>5380</v>
@@ -2646,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D23" s="27">
         <f>COUNTA(F23:AC23)</f>
@@ -2679,7 +2679,7 @@
       <c r="AB23" s="29"/>
       <c r="AC23" s="29"/>
       <c r="AD23" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE23" s="0" t="n">
         <v>2600</v>
@@ -2693,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="27" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D24" s="27">
         <f>COUNTA(F24:AC24)</f>
@@ -2726,7 +2726,7 @@
       <c r="AB24" s="29"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>5380</v>
@@ -2740,7 +2740,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2773,7 +2773,7 @@
       <c r="AB25" s="29"/>
       <c r="AC25" s="29"/>
       <c r="AD25" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="0" t="n">
         <v>10080</v>
@@ -2787,7 +2787,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2820,7 +2820,7 @@
       <c r="AB26" s="29"/>
       <c r="AC26" s="29"/>
       <c r="AD26" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE26" s="0" t="n">
         <v>8140</v>
@@ -2834,7 +2834,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2867,7 +2867,7 @@
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
       <c r="AD27" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AE27" s="0" t="n">
         <v>10850</v>
@@ -2881,7 +2881,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2914,7 +2914,7 @@
       <c r="AB28" s="29"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE28" s="0" t="n">
         <v>7560</v>
@@ -2928,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
@@ -2961,7 +2961,7 @@
       <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE29" s="0" t="n">
         <v>10660</v>
@@ -2975,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3008,7 +3008,7 @@
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
       <c r="AD30" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE30" s="0" t="n">
         <v>2620</v>
@@ -3022,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>
@@ -3055,7 +3055,7 @@
       <c r="AB31" s="29"/>
       <c r="AC31" s="29"/>
       <c r="AD31" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="0" t="n">
         <v>2640</v>
@@ -3069,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D32" s="27">
         <f>COUNTA(F32:AC32)</f>
@@ -3102,7 +3102,7 @@
       <c r="AB32" s="29"/>
       <c r="AC32" s="29"/>
       <c r="AD32" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AE32" s="0" t="n">
         <v>8000</v>
@@ -3116,7 +3116,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="27" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D33" s="27">
         <f>COUNTA(F33:AC33)</f>
@@ -3149,7 +3149,7 @@
       <c r="AB33" s="29"/>
       <c r="AC33" s="29"/>
       <c r="AD33" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE33" s="0" t="n">
         <v>2600</v>
@@ -3163,7 +3163,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="27" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D34" s="27">
         <f>COUNTA(F34:AC34)</f>
@@ -3196,7 +3196,7 @@
       <c r="AB34" s="29"/>
       <c r="AC34" s="29"/>
       <c r="AD34" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AE34" s="0" t="n">
         <v>8280</v>
@@ -3210,7 +3210,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="27" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D35" s="27">
         <f>COUNTA(F35:AC35)</f>
@@ -3243,7 +3243,7 @@
       <c r="AB35" s="29"/>
       <c r="AC35" s="29"/>
       <c r="AD35" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AE35" s="0" t="n">
         <v>2740</v>
@@ -3257,7 +3257,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D36" s="32">
         <f>COUNTA(F36:AC36)</f>
@@ -3290,7 +3290,7 @@
       <c r="AB36" s="34"/>
       <c r="AC36" s="34"/>
       <c r="AD36" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AE36" s="0" t="n">
         <v>5280</v>
@@ -3304,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D37" s="32">
         <f>COUNTA(F37:AC37)</f>
@@ -3337,7 +3337,7 @@
       <c r="AB37" s="34"/>
       <c r="AC37" s="34"/>
       <c r="AD37" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE37" s="0" t="n">
         <v>10950</v>
@@ -3351,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D38" s="32">
         <f>COUNTA(F38:AC38)</f>
@@ -3384,7 +3384,7 @@
       <c r="AB38" s="34"/>
       <c r="AC38" s="34"/>
       <c r="AD38" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AE38" s="0" t="n">
         <v>7640</v>
@@ -3398,7 +3398,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D39" s="32">
         <f>COUNTA(F39:AC39)</f>
@@ -3431,7 +3431,7 @@
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE39" s="0" t="n">
         <v>5040</v>
@@ -3478,7 +3478,7 @@
       <c r="AB40" s="34"/>
       <c r="AC40" s="34"/>
       <c r="AD40" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE40" s="0" t="n">
         <v>2640</v>
@@ -3525,195 +3525,39 @@
       <c r="AB41" s="34"/>
       <c r="AC41" s="34"/>
       <c r="AD41" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE41" s="0" t="n">
         <v>5240</v>
       </c>
     </row>
-    <row r="42" spans="1:31" customHeight="1">
-      <c r="A42" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D42" s="32">
-        <f>COUNTA(F42:AC42)</f>
-      </c>
-      <c r="E42" s="32">
-        <f>C42*D42</f>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
+    <row r="42" spans="30:31" customHeight="1">
       <c r="AD42" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE42" s="0" t="n">
         <v>2640</v>
       </c>
     </row>
-    <row r="43" spans="1:31" customHeight="1">
-      <c r="A43" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D43" s="32">
-        <f>COUNTA(F43:AC43)</f>
-      </c>
-      <c r="E43" s="32">
-        <f>C43*D43</f>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
+    <row r="43" spans="30:31" customHeight="1">
       <c r="AD43" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE43" s="0" t="n">
         <v>2670</v>
       </c>
     </row>
-    <row r="44" spans="1:31" customHeight="1">
-      <c r="A44" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D44" s="32">
-        <f>COUNTA(F44:AC44)</f>
-      </c>
-      <c r="E44" s="32">
-        <f>C44*D44</f>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
+    <row r="44" spans="30:31" customHeight="1">
       <c r="AD44" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE44" s="0" t="n">
         <v>2760</v>
       </c>
     </row>
-    <row r="45" spans="1:31" customHeight="1">
-      <c r="A45" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D45" s="32">
-        <f>COUNTA(F45:AC45)</f>
-      </c>
-      <c r="E45" s="32">
-        <f>C45*D45</f>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
+    <row r="45" spans="30:31" customHeight="1">
       <c r="AD45" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE45" s="0" t="n">
         <v>2690</v>
@@ -3721,7 +3565,7 @@
     </row>
     <row r="46" spans="30:31" customHeight="1">
       <c r="AD46" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE46" s="0" t="n">
         <v>11770</v>
@@ -3729,7 +3573,7 @@
     </row>
     <row r="47" spans="30:31" customHeight="1">
       <c r="AD47" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AE47" s="0" t="n">
         <v>2570</v>
@@ -3737,7 +3581,7 @@
     </row>
     <row r="48" spans="30:31" customHeight="1">
       <c r="AD48" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AE48" s="0" t="n">
         <v>10760</v>
@@ -3745,7 +3589,7 @@
     </row>
     <row r="49" spans="30:31" customHeight="1">
       <c r="AD49" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AE49" s="0" t="n">
         <v>10370</v>
@@ -3753,7 +3597,7 @@
     </row>
     <row r="50" spans="30:31" customHeight="1">
       <c r="AD50" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE50" s="0" t="n">
         <v>7710</v>
@@ -3761,7 +3605,7 @@
     </row>
     <row r="51" spans="30:31" customHeight="1">
       <c r="AD51" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AE51" s="0" t="n">
         <v>7920</v>
@@ -3769,7 +3613,7 @@
     </row>
     <row r="52" spans="30:31" customHeight="1">
       <c r="AD52" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AE52" s="0" t="n">
         <v>2720</v>
@@ -3777,7 +3621,7 @@
     </row>
     <row r="53" spans="30:31" customHeight="1">
       <c r="AD53" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AE53" s="0" t="n">
         <v>10560</v>
@@ -3785,7 +3629,7 @@
     </row>
     <row r="54" spans="30:31" customHeight="1">
       <c r="AD54" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AE54" s="0" t="n">
         <v>5280</v>
@@ -3793,7 +3637,7 @@
     </row>
     <row r="55" spans="30:31" customHeight="1">
       <c r="AD55" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AE55" s="0" t="n">
         <v>5040</v>
@@ -3801,7 +3645,7 @@
     </row>
     <row r="56" spans="30:31" customHeight="1">
       <c r="AD56" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AE56" s="0" t="n">
         <v>7560</v>
@@ -3809,7 +3653,7 @@
     </row>
     <row r="57" spans="30:31" customHeight="1">
       <c r="AD57" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AE57" s="0" t="n">
         <v>2620</v>
@@ -3817,7 +3661,7 @@
     </row>
     <row r="58" spans="30:31" customHeight="1">
       <c r="AD58" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE58" s="0" t="n">
         <v>2640</v>
@@ -3825,7 +3669,7 @@
     </row>
     <row r="59" spans="30:31" customHeight="1">
       <c r="AD59" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AE59" s="0" t="n">
         <v>2720</v>
@@ -3833,7 +3677,7 @@
     </row>
     <row r="60" spans="30:31" customHeight="1">
       <c r="AD60" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE60" s="0" t="n">
         <v>2550</v>
@@ -3841,7 +3685,7 @@
     </row>
     <row r="61" spans="30:31" customHeight="1">
       <c r="AD61" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE61" s="0" t="n">
         <v>2520</v>
@@ -3849,7 +3693,7 @@
     </row>
     <row r="62" spans="30:31" customHeight="1">
       <c r="AD62" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AE62" s="0" t="n">
         <v>2520</v>
@@ -3857,7 +3701,7 @@
     </row>
     <row r="63" spans="30:31" customHeight="1">
       <c r="AD63" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AE63" s="0" t="n">
         <v>2600</v>
@@ -3865,7 +3709,7 @@
     </row>
     <row r="64" spans="30:31" customHeight="1">
       <c r="AD64" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AE64" s="0" t="n">
         <v>2550</v>
@@ -3873,7 +3717,7 @@
     </row>
     <row r="65" spans="30:31" customHeight="1">
       <c r="AD65" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AE65" s="0" t="n">
         <v>10080</v>
@@ -3881,7 +3725,7 @@
     </row>
     <row r="66" spans="30:31" customHeight="1">
       <c r="AD66" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AE66" s="0" t="n">
         <v>5090</v>
@@ -3889,7 +3733,7 @@
     </row>
     <row r="67" spans="30:31" customHeight="1">
       <c r="AD67" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE67" s="0" t="n">
         <v>7920</v>
@@ -3897,7 +3741,7 @@
     </row>
     <row r="68" spans="30:31" customHeight="1">
       <c r="AD68" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AE68" s="0" t="n">
         <v>10080</v>
@@ -3905,7 +3749,7 @@
     </row>
     <row r="69" spans="30:31" customHeight="1">
       <c r="AD69" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AE69" s="0" t="n">
         <v>10280</v>
@@ -3913,7 +3757,7 @@
     </row>
     <row r="70" spans="30:31" customHeight="1">
       <c r="AD70" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE70" s="0" t="n">
         <v>8000</v>
@@ -3921,7 +3765,7 @@
     </row>
     <row r="71" spans="30:31" customHeight="1">
       <c r="AD71" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AE71" s="0" t="n">
         <v>5480</v>
@@ -3929,7 +3773,7 @@
     </row>
     <row r="72" spans="30:31" customHeight="1">
       <c r="AD72" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE72" s="0" t="n">
         <v>5190</v>
@@ -3937,7 +3781,7 @@
     </row>
     <row r="73" spans="30:31" customHeight="1">
       <c r="AD73" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AE73" s="0" t="n">
         <v>2760</v>
@@ -3945,7 +3789,7 @@
     </row>
     <row r="74" spans="30:31" customHeight="1">
       <c r="AD74" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AE74" s="0" t="n">
         <v>5480</v>
@@ -3953,7 +3797,7 @@
     </row>
     <row r="75" spans="30:31" customHeight="1">
       <c r="AD75" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AE75" s="0" t="n">
         <v>2760</v>
@@ -3961,7 +3805,7 @@
     </row>
     <row r="76" spans="30:31" customHeight="1">
       <c r="AD76" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE76" s="0" t="n">
         <v>2740</v>
@@ -3969,7 +3813,7 @@
     </row>
     <row r="77" spans="30:31" customHeight="1">
       <c r="AD77" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AE77" s="0" t="n">
         <v>2690</v>
@@ -3977,7 +3821,7 @@
     </row>
     <row r="78" spans="30:31" customHeight="1">
       <c r="AD78" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AE78" s="0" t="n">
         <v>5190</v>
@@ -3985,7 +3829,7 @@
     </row>
     <row r="79" spans="30:31" customHeight="1">
       <c r="AD79" s="0" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AE79" s="0" t="n">
         <v>10370</v>
@@ -3993,7 +3837,7 @@
     </row>
     <row r="80" spans="30:31" customHeight="1">
       <c r="AD80" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AE80" s="0" t="n">
         <v>2640</v>
@@ -4001,7 +3845,7 @@
     </row>
     <row r="81" spans="30:31" customHeight="1">
       <c r="AD81" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AE81" s="0" t="n">
         <v>2690</v>
@@ -4009,7 +3853,7 @@
     </row>
     <row r="82" spans="30:31" customHeight="1">
       <c r="AD82" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AE82" s="0" t="n">
         <v>10660</v>
@@ -4017,7 +3861,7 @@
     </row>
     <row r="83" spans="30:31" customHeight="1">
       <c r="AD83" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AE83" s="0" t="n">
         <v>5280</v>
@@ -4025,7 +3869,7 @@
     </row>
     <row r="84" spans="30:31" customHeight="1">
       <c r="AD84" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AE84" s="0" t="n">
         <v>2620</v>
@@ -4033,7 +3877,7 @@
     </row>
     <row r="85" spans="30:31" customHeight="1">
       <c r="AD85" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AE85" s="0" t="n">
         <v>7850</v>
@@ -4041,7 +3885,7 @@
     </row>
     <row r="86" spans="30:31" customHeight="1">
       <c r="AD86" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AE86" s="0" t="n">
         <v>2670</v>
@@ -4049,7 +3893,7 @@
     </row>
     <row r="87" spans="30:31" customHeight="1">
       <c r="AD87" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AE87" s="0" t="n">
         <v>5040</v>
@@ -4057,7 +3901,7 @@
     </row>
     <row r="88" spans="30:31" customHeight="1">
       <c r="AD88" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AE88" s="0" t="n">
         <v>2640</v>
@@ -4065,7 +3909,7 @@
     </row>
     <row r="89" spans="30:31" customHeight="1">
       <c r="AD89" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AE89" s="0" t="n">
         <v>2550</v>
@@ -4073,7 +3917,7 @@
     </row>
     <row r="90" spans="30:31" customHeight="1">
       <c r="AD90" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE90" s="0" t="n">
         <v>5090</v>
@@ -4081,7 +3925,7 @@
     </row>
     <row r="91" spans="30:31" customHeight="1">
       <c r="AD91" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AE91" s="0" t="n">
         <v>5430</v>
@@ -4089,7 +3933,7 @@
     </row>
     <row r="92" spans="30:31" customHeight="1">
       <c r="AD92" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AE92" s="0" t="n">
         <v>8140</v>
@@ -4097,7 +3941,7 @@
     </row>
     <row r="93" spans="30:31" customHeight="1">
       <c r="AD93" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AE93" s="0" t="n">
         <v>5330</v>
@@ -4105,7 +3949,7 @@
     </row>
     <row r="94" spans="30:31" customHeight="1">
       <c r="AD94" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AE94" s="0" t="n">
         <v>5090</v>
@@ -4113,7 +3957,7 @@
     </row>
     <row r="95" spans="30:31" customHeight="1">
       <c r="AD95" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AE95" s="0" t="n">
         <v>5280</v>
@@ -4121,7 +3965,7 @@
     </row>
     <row r="96" spans="30:31" customHeight="1">
       <c r="AD96" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AE96" s="0" t="n">
         <v>5090</v>
@@ -4129,7 +3973,7 @@
     </row>
     <row r="97" spans="30:31" customHeight="1">
       <c r="AD97" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AE97" s="0" t="n">
         <v>5040</v>
@@ -4137,7 +3981,7 @@
     </row>
     <row r="98" spans="30:31" customHeight="1">
       <c r="AD98" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AE98" s="0" t="n">
         <v>8210</v>
@@ -4145,7 +3989,7 @@
     </row>
     <row r="99" spans="30:31" customHeight="1">
       <c r="AD99" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE99" s="0" t="n">
         <v>10370</v>
@@ -4153,7 +3997,7 @@
     </row>
     <row r="100" spans="30:31" customHeight="1">
       <c r="AD100" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE100" s="0" t="n">
         <v>7920</v>
@@ -4161,7 +4005,7 @@
     </row>
     <row r="101" spans="30:31" customHeight="1">
       <c r="AD101" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE101" s="0" t="n">
         <v>5040</v>
@@ -4169,7 +4013,7 @@
     </row>
     <row r="102" spans="30:31" customHeight="1">
       <c r="AD102" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AE102" s="0" t="n">
         <v>2670</v>
@@ -4177,7 +4021,7 @@
     </row>
     <row r="103" spans="30:31" customHeight="1">
       <c r="AD103" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AE103" s="0" t="n">
         <v>5040</v>
@@ -4185,7 +4029,7 @@
     </row>
     <row r="104" spans="30:31" customHeight="1">
       <c r="AD104" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AE104" s="0" t="n">
         <v>10470</v>
@@ -4193,7 +4037,7 @@
     </row>
     <row r="105" spans="30:31" customHeight="1">
       <c r="AD105" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AE105" s="0" t="n">
         <v>5140</v>
@@ -4201,7 +4045,7 @@
     </row>
     <row r="106" spans="30:31" customHeight="1">
       <c r="AD106" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE106" s="0" t="n">
         <v>5040</v>
@@ -4209,7 +4053,7 @@
     </row>
     <row r="107" spans="30:31" customHeight="1">
       <c r="AD107" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AE107" s="0" t="n">
         <v>8000</v>
@@ -4217,7 +4061,7 @@
     </row>
     <row r="108" spans="30:31" customHeight="1">
       <c r="AD108" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AE108" s="0" t="n">
         <v>8210</v>
@@ -4225,7 +4069,7 @@
     </row>
     <row r="109" spans="30:31" customHeight="1">
       <c r="AD109" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE109" s="0" t="n">
         <v>2670</v>
@@ -4233,7 +4077,7 @@
     </row>
     <row r="110" spans="30:31" customHeight="1">
       <c r="AD110" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AE110" s="0" t="n">
         <v>2550</v>
@@ -4241,7 +4085,7 @@
     </row>
     <row r="111" spans="30:31" customHeight="1">
       <c r="AD111" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AE111" s="0" t="n">
         <v>2670</v>
@@ -4249,7 +4093,7 @@
     </row>
     <row r="112" spans="30:31" customHeight="1">
       <c r="AD112" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AE112" s="0" t="n">
         <v>5190</v>
@@ -4257,7 +4101,7 @@
     </row>
     <row r="113" spans="30:31" customHeight="1">
       <c r="AD113" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AE113" s="0" t="n">
         <v>2740</v>
@@ -4265,7 +4109,7 @@
     </row>
     <row r="114" spans="30:31" customHeight="1">
       <c r="AD114" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AE114" s="0" t="n">
         <v>5330</v>
@@ -4273,7 +4117,7 @@
     </row>
     <row r="115" spans="30:31" customHeight="1">
       <c r="AD115" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE115" s="0" t="n">
         <v>5520</v>
@@ -4281,7 +4125,7 @@
     </row>
     <row r="116" spans="30:31" customHeight="1">
       <c r="AD116" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AE116" s="0" t="n">
         <v>10660</v>
@@ -4289,7 +4133,7 @@
     </row>
     <row r="117" spans="30:31" customHeight="1">
       <c r="AD117" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AE117" s="0" t="n">
         <v>7710</v>
@@ -4297,7 +4141,7 @@
     </row>
     <row r="118" spans="30:31" customHeight="1">
       <c r="AD118" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AE118" s="0" t="n">
         <v>7640</v>
@@ -4305,7 +4149,7 @@
     </row>
     <row r="119" spans="30:31" customHeight="1">
       <c r="AD119" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AE119" s="0" t="n">
         <v>2760</v>
@@ -4313,7 +4157,7 @@
     </row>
     <row r="120" spans="30:31" customHeight="1">
       <c r="AD120" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AE120" s="0" t="n">
         <v>7640</v>
@@ -4321,7 +4165,7 @@
     </row>
     <row r="121" spans="30:31" customHeight="1">
       <c r="AD121" s="0" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AE121" s="0" t="n">
         <v>5140</v>
@@ -4329,7 +4173,7 @@
     </row>
     <row r="122" spans="30:31" customHeight="1">
       <c r="AD122" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AE122" s="0" t="n">
         <v>8280</v>
@@ -4337,7 +4181,7 @@
     </row>
     <row r="123" spans="30:31" customHeight="1">
       <c r="AD123" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AE123" s="0" t="n">
         <v>7560</v>
@@ -4345,7 +4189,7 @@
     </row>
     <row r="124" spans="30:31" customHeight="1">
       <c r="AD124" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AE124" s="0" t="n">
         <v>5090</v>
@@ -4353,7 +4197,7 @@
     </row>
     <row r="125" spans="30:31" customHeight="1">
       <c r="AD125" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AE125" s="0" t="n">
         <v>2550</v>
@@ -4361,7 +4205,7 @@
     </row>
     <row r="126" spans="30:31" customHeight="1">
       <c r="AD126" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AE126" s="0" t="n">
         <v>8280</v>
@@ -4369,7 +4213,7 @@
     </row>
     <row r="127" spans="30:31" customHeight="1">
       <c r="AD127" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AE127" s="0" t="n">
         <v>5480</v>
@@ -4377,7 +4221,7 @@
     </row>
     <row r="128" spans="30:31" customHeight="1">
       <c r="AD128" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AE128" s="0" t="n">
         <v>2520</v>
@@ -4385,7 +4229,7 @@
     </row>
     <row r="129" spans="30:31" customHeight="1">
       <c r="AD129" s="0" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AE129" s="0" t="n">
         <v>11550</v>
@@ -4393,7 +4237,7 @@
     </row>
     <row r="130" spans="30:31" customHeight="1">
       <c r="AD130" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AE130" s="0" t="n">
         <v>7710</v>
@@ -4401,7 +4245,7 @@
     </row>
     <row r="131" spans="30:31" customHeight="1">
       <c r="AD131" s="0" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AE131" s="0" t="n">
         <v>2550</v>
@@ -4409,7 +4253,7 @@
     </row>
     <row r="132" spans="30:31" customHeight="1">
       <c r="AD132" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AE132" s="0" t="n">
         <v>2740</v>
@@ -4417,7 +4261,7 @@
     </row>
     <row r="133" spans="30:31" customHeight="1">
       <c r="AD133" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AE133" s="0" t="n">
         <v>12430</v>
@@ -4425,7 +4269,7 @@
     </row>
     <row r="134" spans="30:31" customHeight="1">
       <c r="AD134" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AE134" s="0" t="n">
         <v>5140</v>
@@ -4433,7 +4277,7 @@
     </row>
     <row r="135" spans="30:31" customHeight="1">
       <c r="AD135" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AE135" s="0" t="n">
         <v>2600</v>
@@ -4441,7 +4285,7 @@
     </row>
     <row r="136" spans="30:31" customHeight="1">
       <c r="AD136" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AE136" s="0" t="n">
         <v>2760</v>
@@ -4449,7 +4293,7 @@
     </row>
     <row r="137" spans="30:31" customHeight="1">
       <c r="AD137" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AE137" s="0" t="n">
         <v>2620</v>
@@ -4457,7 +4301,7 @@
     </row>
     <row r="138" spans="30:31" customHeight="1">
       <c r="AD138" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AE138" s="0" t="n">
         <v>2640</v>
@@ -4465,7 +4309,7 @@
     </row>
     <row r="139" spans="30:31" customHeight="1">
       <c r="AD139" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AE139" s="0" t="n">
         <v>5240</v>
@@ -4473,7 +4317,7 @@
     </row>
     <row r="140" spans="30:31" customHeight="1">
       <c r="AD140" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AE140" s="0" t="n">
         <v>7710</v>
@@ -4481,7 +4325,7 @@
     </row>
     <row r="141" spans="30:31" customHeight="1">
       <c r="AD141" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AE141" s="0" t="n">
         <v>5280</v>
@@ -4489,7 +4333,7 @@
     </row>
     <row r="142" spans="30:31" customHeight="1">
       <c r="AD142" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AE142" s="0" t="n">
         <v>2640</v>
@@ -4497,7 +4341,7 @@
     </row>
     <row r="143" spans="30:31" customHeight="1">
       <c r="AD143" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE143" s="0" t="n">
         <v>2570</v>
@@ -4505,7 +4349,7 @@
     </row>
     <row r="144" spans="30:31" customHeight="1">
       <c r="AD144" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AE144" s="0" t="n">
         <v>5140</v>
@@ -4513,7 +4357,7 @@
     </row>
     <row r="145" spans="30:31" customHeight="1">
       <c r="AD145" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AE145" s="0" t="n">
         <v>10950</v>
@@ -4521,7 +4365,7 @@
     </row>
     <row r="146" spans="30:31" customHeight="1">
       <c r="AD146" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AE146" s="0" t="n">
         <v>7780</v>
@@ -4529,7 +4373,7 @@
     </row>
     <row r="147" spans="30:31" customHeight="1">
       <c r="AD147" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AE147" s="0" t="n">
         <v>2520</v>
@@ -4537,7 +4381,7 @@
     </row>
     <row r="148" spans="30:31" customHeight="1">
       <c r="AD148" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AE148" s="0" t="n">
         <v>2690</v>
@@ -4545,7 +4389,7 @@
     </row>
     <row r="149" spans="30:31" customHeight="1">
       <c r="AD149" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AE149" s="0" t="n">
         <v>2550</v>
@@ -4553,7 +4397,7 @@
     </row>
     <row r="150" spans="30:31" customHeight="1">
       <c r="AD150" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AE150" s="0" t="n">
         <v>5190</v>
@@ -4561,7 +4405,7 @@
     </row>
     <row r="151" spans="30:31" customHeight="1">
       <c r="AD151" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AE151" s="0" t="n">
         <v>8140</v>
@@ -4569,7 +4413,7 @@
     </row>
     <row r="152" spans="30:31" customHeight="1">
       <c r="AD152" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE152" s="0" t="n">
         <v>7710</v>
@@ -4577,7 +4421,7 @@
     </row>
     <row r="153" spans="30:31" customHeight="1">
       <c r="AD153" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AE153" s="0" t="n">
         <v>2720</v>
@@ -4585,7 +4429,7 @@
     </row>
     <row r="154" spans="30:31" customHeight="1">
       <c r="AD154" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AE154" s="0" t="n">
         <v>2640</v>
@@ -4593,7 +4437,7 @@
     </row>
     <row r="155" spans="30:31" customHeight="1">
       <c r="AD155" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AE155" s="0" t="n">
         <v>2600</v>
@@ -4601,7 +4445,7 @@
     </row>
     <row r="156" spans="30:31" customHeight="1">
       <c r="AD156" s="0" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AE156" s="0" t="n">
         <v>8140</v>
@@ -4609,7 +4453,7 @@
     </row>
     <row r="157" spans="30:31" customHeight="1">
       <c r="AD157" s="0" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AE157" s="0" t="n">
         <v>5040</v>
@@ -4617,7 +4461,7 @@
     </row>
     <row r="158" spans="30:31" customHeight="1">
       <c r="AD158" s="0" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AE158" s="0" t="n">
         <v>10280</v>
@@ -4625,7 +4469,7 @@
     </row>
     <row r="159" spans="30:31" customHeight="1">
       <c r="AD159" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AE159" s="0" t="n">
         <v>5430</v>
@@ -4633,7 +4477,7 @@
     </row>
     <row r="160" spans="30:31" customHeight="1">
       <c r="AD160" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AE160" s="0" t="n">
         <v>8140</v>
@@ -4641,7 +4485,7 @@
     </row>
     <row r="161" spans="30:31" customHeight="1">
       <c r="AD161" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AE161" s="0" t="n">
         <v>5430</v>
@@ -4649,7 +4493,7 @@
     </row>
     <row r="162" spans="30:31" customHeight="1">
       <c r="AD162" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE162" s="0" t="n">
         <v>10950</v>
@@ -4657,7 +4501,7 @@
     </row>
     <row r="163" spans="30:31" customHeight="1">
       <c r="AD163" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AE163" s="0" t="n">
         <v>7710</v>
@@ -4665,7 +4509,7 @@
     </row>
     <row r="164" spans="30:31" customHeight="1">
       <c r="AD164" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AE164" s="0" t="n">
         <v>2690</v>
@@ -4673,7 +4517,7 @@
     </row>
     <row r="165" spans="30:31" customHeight="1">
       <c r="AD165" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AE165" s="0" t="n">
         <v>5520</v>
@@ -4681,7 +4525,7 @@
     </row>
     <row r="166" spans="30:31" customHeight="1">
       <c r="AD166" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AE166" s="0" t="n">
         <v>8000</v>
@@ -4689,7 +4533,7 @@
     </row>
     <row r="167" spans="30:31" customHeight="1">
       <c r="AD167" s="0" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AE167" s="0" t="n">
         <v>7920</v>
@@ -4697,7 +4541,7 @@
     </row>
     <row r="168" spans="30:31" customHeight="1">
       <c r="AD168" s="0" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AE168" s="0" t="n">
         <v>10560</v>
@@ -4705,7 +4549,7 @@
     </row>
     <row r="169" spans="30:31" customHeight="1">
       <c r="AD169" s="0" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AE169" s="0" t="n">
         <v>2670</v>
@@ -4713,7 +4557,7 @@
     </row>
     <row r="170" spans="30:31" customHeight="1">
       <c r="AD170" s="0" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE170" s="0" t="n">
         <v>5330</v>
@@ -4721,7 +4565,7 @@
     </row>
     <row r="171" spans="30:31" customHeight="1">
       <c r="AD171" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE171" s="0" t="n">
         <v>2520</v>
@@ -4729,7 +4573,7 @@
     </row>
     <row r="172" spans="30:31" customHeight="1">
       <c r="AD172" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE172" s="0" t="n">
         <v>5190</v>
@@ -4737,7 +4581,7 @@
     </row>
     <row r="173" spans="30:31" customHeight="1">
       <c r="AD173" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AE173" s="0" t="n">
         <v>2720</v>
@@ -4745,7 +4589,7 @@
     </row>
     <row r="174" spans="30:31" customHeight="1">
       <c r="AD174" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AE174" s="0" t="n">
         <v>2520</v>
@@ -4753,7 +4597,7 @@
     </row>
     <row r="175" spans="30:31" customHeight="1">
       <c r="AD175" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AE175" s="0" t="n">
         <v>5090</v>
@@ -4761,7 +4605,7 @@
     </row>
     <row r="176" spans="30:31" customHeight="1">
       <c r="AD176" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AE176" s="0" t="n">
         <v>2570</v>
@@ -4769,7 +4613,7 @@
     </row>
     <row r="177" spans="30:31" customHeight="1">
       <c r="AD177" s="0" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AE177" s="0" t="n">
         <v>7780</v>
@@ -4777,7 +4621,7 @@
     </row>
     <row r="178" spans="30:31" customHeight="1">
       <c r="AD178" s="0" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AE178" s="0" t="n">
         <v>10760</v>
@@ -4785,7 +4629,7 @@
     </row>
     <row r="179" spans="30:31" customHeight="1">
       <c r="AD179" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AE179" s="0" t="n">
         <v>10280</v>
@@ -4793,7 +4637,7 @@
     </row>
     <row r="180" spans="30:31" customHeight="1">
       <c r="AD180" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AE180" s="0" t="n">
         <v>2720</v>
@@ -4801,7 +4645,7 @@
     </row>
     <row r="181" spans="30:31" customHeight="1">
       <c r="AD181" s="0" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AE181" s="0" t="n">
         <v>2600</v>
@@ -4809,7 +4653,7 @@
     </row>
     <row r="182" spans="30:31" customHeight="1">
       <c r="AD182" s="0" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AE182" s="0" t="n">
         <v>8070</v>
@@ -4817,7 +4661,7 @@
     </row>
     <row r="183" spans="30:31" customHeight="1">
       <c r="AD183" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AE183" s="0" t="n">
         <v>10660</v>
@@ -4825,7 +4669,7 @@
     </row>
     <row r="184" spans="30:31" customHeight="1">
       <c r="AD184" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AE184" s="0" t="n">
         <v>7920</v>
@@ -4833,7 +4677,7 @@
     </row>
     <row r="185" spans="30:31" customHeight="1">
       <c r="AD185" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AE185" s="0" t="n">
         <v>2600</v>
@@ -4841,7 +4685,7 @@
     </row>
     <row r="186" spans="30:31" customHeight="1">
       <c r="AD186" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AE186" s="0" t="n">
         <v>2570</v>
@@ -4849,7 +4693,7 @@
     </row>
     <row r="187" spans="30:31" customHeight="1">
       <c r="AD187" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AE187" s="0" t="n">
         <v>5040</v>
@@ -4857,7 +4701,7 @@
     </row>
     <row r="188" spans="30:31" customHeight="1">
       <c r="AD188" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE188" s="0" t="n">
         <v>7710</v>
@@ -4865,7 +4709,7 @@
     </row>
     <row r="189" spans="30:31" customHeight="1">
       <c r="AD189" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AE189" s="0" t="n">
         <v>2670</v>
@@ -4873,7 +4717,7 @@
     </row>
     <row r="190" spans="30:31" customHeight="1">
       <c r="AD190" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AE190" s="0" t="n">
         <v>8280</v>
@@ -4881,7 +4725,7 @@
     </row>
     <row r="191" spans="30:31" customHeight="1">
       <c r="AD191" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AE191" s="0" t="n">
         <v>7920</v>
@@ -4889,7 +4733,7 @@
     </row>
     <row r="192" spans="30:31" customHeight="1">
       <c r="AD192" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE192" s="0" t="n">
         <v>5330</v>
@@ -4897,7 +4741,7 @@
     </row>
     <row r="193" spans="30:31" customHeight="1">
       <c r="AD193" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AE193" s="0" t="n">
         <v>5480</v>
@@ -4905,7 +4749,7 @@
     </row>
     <row r="194" spans="30:31" customHeight="1">
       <c r="AD194" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AE194" s="0" t="n">
         <v>2640</v>
@@ -4913,7 +4757,7 @@
     </row>
     <row r="195" spans="30:31" customHeight="1">
       <c r="AD195" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE195" s="0" t="n">
         <v>5140</v>
@@ -4921,7 +4765,7 @@
     </row>
     <row r="196" spans="30:31" customHeight="1">
       <c r="AD196" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AE196" s="0" t="n">
         <v>5280</v>
@@ -4929,7 +4773,7 @@
     </row>
     <row r="197" spans="30:31" customHeight="1">
       <c r="AD197" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE197" s="0" t="n">
         <v>8140</v>
@@ -4937,7 +4781,7 @@
     </row>
     <row r="198" spans="30:31" customHeight="1">
       <c r="AD198" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AE198" s="0" t="n">
         <v>8070</v>
@@ -4945,7 +4789,7 @@
     </row>
     <row r="199" spans="30:31" customHeight="1">
       <c r="AD199" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AE199" s="0" t="n">
         <v>8280</v>
@@ -4953,7 +4797,7 @@
     </row>
     <row r="200" spans="30:31" customHeight="1">
       <c r="AD200" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE200" s="0" t="n">
         <v>7920</v>
@@ -4961,7 +4805,7 @@
     </row>
     <row r="201" spans="30:31" customHeight="1">
       <c r="AD201" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AE201" s="0" t="n">
         <v>8280</v>
@@ -4969,7 +4813,7 @@
     </row>
     <row r="202" spans="30:31" customHeight="1">
       <c r="AD202" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AE202" s="0" t="n">
         <v>10950</v>
@@ -4977,7 +4821,7 @@
     </row>
     <row r="203" spans="30:31" customHeight="1">
       <c r="AD203" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AE203" s="0" t="n">
         <v>7560</v>
@@ -4985,7 +4829,7 @@
     </row>
     <row r="204" spans="30:31" customHeight="1">
       <c r="AD204" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AE204" s="0" t="n">
         <v>5380</v>
@@ -4993,7 +4837,7 @@
     </row>
     <row r="205" spans="30:31" customHeight="1">
       <c r="AD205" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AE205" s="0" t="n">
         <v>7560</v>
@@ -5001,7 +4845,7 @@
     </row>
     <row r="206" spans="30:31" customHeight="1">
       <c r="AD206" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AE206" s="0" t="n">
         <v>5240</v>
@@ -5009,7 +4853,7 @@
     </row>
     <row r="207" spans="30:31" customHeight="1">
       <c r="AD207" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AE207" s="0" t="n">
         <v>8070</v>
@@ -5017,7 +4861,7 @@
     </row>
     <row r="208" spans="30:31" customHeight="1">
       <c r="AD208" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AE208" s="0" t="n">
         <v>5520</v>
@@ -5025,7 +4869,7 @@
     </row>
     <row r="209" spans="30:31" customHeight="1">
       <c r="AD209" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AE209" s="0" t="n">
         <v>10850</v>
@@ -5033,7 +4877,7 @@
     </row>
     <row r="210" spans="30:31" customHeight="1">
       <c r="AD210" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AE210" s="0" t="n">
         <v>5520</v>
@@ -5041,7 +4885,7 @@
     </row>
     <row r="211" spans="30:31" customHeight="1">
       <c r="AD211" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AE211" s="0" t="n">
         <v>8140</v>
@@ -5049,7 +4893,7 @@
     </row>
     <row r="212" spans="30:31" customHeight="1">
       <c r="AD212" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AE212" s="0" t="n">
         <v>7640</v>
@@ -5057,7 +4901,7 @@
     </row>
     <row r="213" spans="30:31" customHeight="1">
       <c r="AD213" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AE213" s="0" t="n">
         <v>5380</v>
@@ -5065,7 +4909,7 @@
     </row>
     <row r="214" spans="30:31" customHeight="1">
       <c r="AD214" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AE214" s="0" t="n">
         <v>5380</v>
@@ -5073,7 +4917,7 @@
     </row>
     <row r="215" spans="30:31" customHeight="1">
       <c r="AD215" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AE215" s="0" t="n">
         <v>10560</v>
@@ -5081,7 +4925,7 @@
     </row>
     <row r="216" spans="30:31" customHeight="1">
       <c r="AD216" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AE216" s="0" t="n">
         <v>2760</v>
@@ -5089,7 +4933,7 @@
     </row>
     <row r="217" spans="30:31" customHeight="1">
       <c r="AD217" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AE217" s="0" t="n">
         <v>8000</v>
@@ -5097,7 +4941,7 @@
     </row>
     <row r="218" spans="30:31" customHeight="1">
       <c r="AD218" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AE218" s="0" t="n">
         <v>5520</v>
@@ -5105,7 +4949,7 @@
     </row>
     <row r="219" spans="30:31" customHeight="1">
       <c r="AD219" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AE219" s="0" t="n">
         <v>7640</v>
@@ -5113,7 +4957,7 @@
     </row>
     <row r="220" spans="30:31" customHeight="1">
       <c r="AD220" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AE220" s="0" t="n">
         <v>7560</v>
@@ -5121,7 +4965,7 @@
     </row>
     <row r="221" spans="30:31" customHeight="1">
       <c r="AD221" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AE221" s="0" t="n">
         <v>5480</v>
@@ -5129,7 +4973,7 @@
     </row>
     <row r="222" spans="30:31" customHeight="1">
       <c r="AD222" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE222" s="0" t="n">
         <v>8280</v>
@@ -5137,7 +4981,7 @@
     </row>
     <row r="223" spans="30:31" customHeight="1">
       <c r="AD223" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AE223" s="0" t="n">
         <v>2670</v>
@@ -5145,7 +4989,7 @@
     </row>
     <row r="224" spans="30:31" customHeight="1">
       <c r="AD224" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AE224" s="0" t="n">
         <v>5330</v>
@@ -5153,7 +4997,7 @@
     </row>
     <row r="225" spans="30:31" customHeight="1">
       <c r="AD225" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AE225" s="0" t="n">
         <v>10180</v>
@@ -5161,7 +5005,7 @@
     </row>
     <row r="226" spans="30:31" customHeight="1">
       <c r="AD226" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AE226" s="0" t="n">
         <v>2640</v>
@@ -5169,7 +5013,7 @@
     </row>
     <row r="227" spans="30:31" customHeight="1">
       <c r="AD227" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AE227" s="0" t="n">
         <v>10950</v>
@@ -5177,7 +5021,7 @@
     </row>
     <row r="228" spans="30:31" customHeight="1">
       <c r="AD228" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AE228" s="0" t="n">
         <v>7920</v>
@@ -5185,7 +5029,7 @@
     </row>
     <row r="229" spans="30:31" customHeight="1">
       <c r="AD229" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AE229" s="0" t="n">
         <v>10470</v>
@@ -5193,7 +5037,7 @@
     </row>
     <row r="230" spans="30:31" customHeight="1">
       <c r="AD230" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AE230" s="0" t="n">
         <v>10660</v>
@@ -5201,7 +5045,7 @@
     </row>
     <row r="231" spans="30:31" customHeight="1">
       <c r="AD231" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AE231" s="0" t="n">
         <v>5480</v>
@@ -5209,7 +5053,7 @@
     </row>
     <row r="232" spans="30:31" customHeight="1">
       <c r="AD232" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AE232" s="0" t="n">
         <v>5280</v>
@@ -5217,7 +5061,7 @@
     </row>
     <row r="233" spans="30:31" customHeight="1">
       <c r="AD233" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AE233" s="0" t="n">
         <v>5190</v>
@@ -5225,7 +5069,7 @@
     </row>
     <row r="234" spans="30:31" customHeight="1">
       <c r="AD234" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AE234" s="0" t="n">
         <v>7560</v>
@@ -5233,7 +5077,7 @@
     </row>
     <row r="235" spans="30:31" customHeight="1">
       <c r="AD235" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AE235" s="0" t="n">
         <v>2640</v>
@@ -5241,7 +5085,7 @@
     </row>
     <row r="236" spans="30:31" customHeight="1">
       <c r="AD236" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AE236" s="0" t="n">
         <v>8070</v>
@@ -5249,7 +5093,7 @@
     </row>
     <row r="237" spans="30:31" customHeight="1">
       <c r="AD237" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AE237" s="0" t="n">
         <v>7920</v>
@@ -5257,7 +5101,7 @@
     </row>
     <row r="238" spans="30:31" customHeight="1">
       <c r="AD238" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AE238" s="0" t="n">
         <v>10850</v>
@@ -5265,7 +5109,7 @@
     </row>
     <row r="239" spans="30:31" customHeight="1">
       <c r="AD239" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AE239" s="0" t="n">
         <v>10280</v>
@@ -5273,7 +5117,7 @@
     </row>
     <row r="240" spans="30:31" customHeight="1">
       <c r="AD240" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AE240" s="0" t="n">
         <v>5040</v>
@@ -5281,7 +5125,7 @@
     </row>
     <row r="241" spans="30:31" customHeight="1">
       <c r="AD241" s="0" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AE241" s="0" t="n">
         <v>2520</v>
@@ -5289,7 +5133,7 @@
     </row>
     <row r="242" spans="30:31" customHeight="1">
       <c r="AD242" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AE242" s="0" t="n">
         <v>8070</v>
@@ -5297,7 +5141,7 @@
     </row>
     <row r="243" spans="30:31" customHeight="1">
       <c r="AD243" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AE243" s="0" t="n">
         <v>10080</v>
@@ -5305,7 +5149,7 @@
     </row>
     <row r="244" spans="30:31" customHeight="1">
       <c r="AD244" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AE244" s="0" t="n">
         <v>2600</v>
@@ -5313,7 +5157,7 @@
     </row>
     <row r="245" spans="30:31" customHeight="1">
       <c r="AD245" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AE245" s="0" t="n">
         <v>2600</v>
@@ -5321,7 +5165,7 @@
     </row>
     <row r="246" spans="30:31" customHeight="1">
       <c r="AD246" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE246" s="0" t="n">
         <v>12320</v>
@@ -5329,7 +5173,7 @@
     </row>
     <row r="247" spans="30:31" customHeight="1">
       <c r="AD247" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AE247" s="0" t="n">
         <v>8000</v>
@@ -5337,7 +5181,7 @@
     </row>
     <row r="248" spans="30:31" customHeight="1">
       <c r="AD248" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AE248" s="0" t="n">
         <v>5330</v>
@@ -5345,7 +5189,7 @@
     </row>
     <row r="249" spans="30:31" customHeight="1">
       <c r="AD249" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AE249" s="0" t="n">
         <v>2600</v>
@@ -5353,7 +5197,7 @@
     </row>
     <row r="250" spans="30:31" customHeight="1">
       <c r="AD250" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AE250" s="0" t="n">
         <v>5480</v>
@@ -5361,7 +5205,7 @@
     </row>
     <row r="251" spans="30:31" customHeight="1">
       <c r="AD251" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AE251" s="0" t="n">
         <v>2620</v>
@@ -5369,7 +5213,7 @@
     </row>
     <row r="252" spans="30:31" customHeight="1">
       <c r="AD252" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AE252" s="0" t="n">
         <v>5090</v>
@@ -5377,7 +5221,7 @@
     </row>
     <row r="253" spans="30:31" customHeight="1">
       <c r="AD253" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AE253" s="0" t="n">
         <v>8070</v>
@@ -5385,7 +5229,7 @@
     </row>
     <row r="254" spans="30:31" customHeight="1">
       <c r="AD254" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AE254" s="0" t="n">
         <v>5330</v>
@@ -5393,7 +5237,7 @@
     </row>
     <row r="255" spans="30:31" customHeight="1">
       <c r="AD255" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AE255" s="0" t="n">
         <v>5520</v>
@@ -5401,7 +5245,7 @@
     </row>
     <row r="256" spans="30:31" customHeight="1">
       <c r="AD256" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AE256" s="0" t="n">
         <v>12650</v>
@@ -5409,7 +5253,7 @@
     </row>
     <row r="257" spans="30:31" customHeight="1">
       <c r="AD257" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE257" s="0" t="n">
         <v>5280</v>
@@ -5417,7 +5261,7 @@
     </row>
     <row r="258" spans="30:31" customHeight="1">
       <c r="AD258" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AE258" s="0" t="n">
         <v>5140</v>
@@ -5425,7 +5269,7 @@
     </row>
     <row r="259" spans="30:31" customHeight="1">
       <c r="AD259" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AE259" s="0" t="n">
         <v>10560</v>
@@ -5433,7 +5277,7 @@
     </row>
     <row r="260" spans="30:31" customHeight="1">
       <c r="AD260" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE260" s="0" t="n">
         <v>5430</v>
@@ -5441,7 +5285,7 @@
     </row>
     <row r="261" spans="30:31" customHeight="1">
       <c r="AD261" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE261" s="0" t="n">
         <v>2670</v>
@@ -5449,7 +5293,7 @@
     </row>
     <row r="262" spans="30:31" customHeight="1">
       <c r="AD262" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AE262" s="0" t="n">
         <v>2720</v>
@@ -5457,7 +5301,7 @@
     </row>
     <row r="263" spans="30:31" customHeight="1">
       <c r="AD263" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE263" s="0" t="n">
         <v>11040</v>
@@ -5465,7 +5309,7 @@
     </row>
     <row r="264" spans="30:31" customHeight="1">
       <c r="AD264" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AE264" s="0" t="n">
         <v>8140</v>
@@ -5473,7 +5317,7 @@
     </row>
     <row r="265" spans="30:31" customHeight="1">
       <c r="AD265" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AE265" s="0" t="n">
         <v>11040</v>
@@ -5481,7 +5325,7 @@
     </row>
     <row r="266" spans="30:31" customHeight="1">
       <c r="AD266" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AE266" s="0" t="n">
         <v>5190</v>
@@ -5489,7 +5333,7 @@
     </row>
     <row r="267" spans="30:31" customHeight="1">
       <c r="AD267" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AE267" s="0" t="n">
         <v>10280</v>
@@ -5497,7 +5341,7 @@
     </row>
     <row r="268" spans="30:31" customHeight="1">
       <c r="AD268" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AE268" s="0" t="n">
         <v>8140</v>
@@ -5505,7 +5349,7 @@
     </row>
     <row r="269" spans="30:31" customHeight="1">
       <c r="AD269" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AE269" s="0" t="n">
         <v>5190</v>
@@ -5513,7 +5357,7 @@
     </row>
     <row r="270" spans="30:31" customHeight="1">
       <c r="AD270" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AE270" s="0" t="n">
         <v>8000</v>
@@ -5521,7 +5365,7 @@
     </row>
     <row r="271" spans="30:31" customHeight="1">
       <c r="AD271" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE271" s="0" t="n">
         <v>5380</v>
@@ -5529,7 +5373,7 @@
     </row>
     <row r="272" spans="30:31" customHeight="1">
       <c r="AD272" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE272" s="0" t="n">
         <v>10180</v>
@@ -5537,7 +5381,7 @@
     </row>
     <row r="273" spans="30:31" customHeight="1">
       <c r="AD273" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AE273" s="0" t="n">
         <v>2640</v>
@@ -5545,7 +5389,7 @@
     </row>
     <row r="274" spans="30:31" customHeight="1">
       <c r="AD274" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AE274" s="0" t="n">
         <v>7920</v>
@@ -5553,7 +5397,7 @@
     </row>
     <row r="275" spans="30:31" customHeight="1">
       <c r="AD275" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AE275" s="0" t="n">
         <v>7710</v>
@@ -5561,7 +5405,7 @@
     </row>
     <row r="276" spans="30:31" customHeight="1">
       <c r="AD276" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AE276" s="0" t="n">
         <v>8000</v>
@@ -5569,7 +5413,7 @@
     </row>
     <row r="277" spans="30:31" customHeight="1">
       <c r="AD277" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AE277" s="0" t="n">
         <v>5520</v>
@@ -5577,7 +5421,7 @@
     </row>
     <row r="278" spans="30:31" customHeight="1">
       <c r="AD278" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AE278" s="0" t="n">
         <v>2640</v>
@@ -5585,7 +5429,7 @@
     </row>
     <row r="279" spans="30:31" customHeight="1">
       <c r="AD279" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE279" s="0" t="n">
         <v>5240</v>
@@ -5593,7 +5437,7 @@
     </row>
     <row r="280" spans="30:31" customHeight="1">
       <c r="AD280" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AE280" s="0" t="n">
         <v>2690</v>
@@ -5601,7 +5445,7 @@
     </row>
     <row r="281" spans="30:31" customHeight="1">
       <c r="AD281" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AE281" s="0" t="n">
         <v>7560</v>
@@ -5609,7 +5453,7 @@
     </row>
     <row r="282" spans="30:31" customHeight="1">
       <c r="AD282" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AE282" s="0" t="n">
         <v>5040</v>
@@ -5617,7 +5461,7 @@
     </row>
     <row r="283" spans="30:31" customHeight="1">
       <c r="AD283" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AE283" s="0" t="n">
         <v>2570</v>
@@ -5625,7 +5469,7 @@
     </row>
     <row r="284" spans="30:31" customHeight="1">
       <c r="AD284" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AE284" s="0" t="n">
         <v>2520</v>
@@ -5633,7 +5477,7 @@
     </row>
     <row r="285" spans="30:31" customHeight="1">
       <c r="AD285" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AE285" s="0" t="n">
         <v>8210</v>
@@ -5641,7 +5485,7 @@
     </row>
     <row r="286" spans="30:31" customHeight="1">
       <c r="AD286" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AE286" s="0" t="n">
         <v>10950</v>
@@ -5649,7 +5493,7 @@
     </row>
     <row r="287" spans="30:31" customHeight="1">
       <c r="AD287" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AE287" s="0" t="n">
         <v>2670</v>
@@ -5657,7 +5501,7 @@
     </row>
     <row r="288" spans="30:31" customHeight="1">
       <c r="AD288" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AE288" s="0" t="n">
         <v>10280</v>
@@ -5665,7 +5509,7 @@
     </row>
     <row r="289" spans="30:31" customHeight="1">
       <c r="AD289" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE289" s="0" t="n">
         <v>8210</v>
@@ -5673,7 +5517,7 @@
     </row>
     <row r="290" spans="30:31" customHeight="1">
       <c r="AD290" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AE290" s="0" t="n">
         <v>10080</v>
@@ -5681,7 +5525,7 @@
     </row>
     <row r="291" spans="30:31" customHeight="1">
       <c r="AD291" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AE291" s="0" t="n">
         <v>2690</v>
@@ -5689,7 +5533,7 @@
     </row>
     <row r="292" spans="30:31" customHeight="1">
       <c r="AD292" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AE292" s="0" t="n">
         <v>2550</v>
@@ -5697,7 +5541,7 @@
     </row>
     <row r="293" spans="30:31" customHeight="1">
       <c r="AD293" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AE293" s="0" t="n">
         <v>5280</v>
@@ -5705,7 +5549,7 @@
     </row>
     <row r="294" spans="30:31" customHeight="1">
       <c r="AD294" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AE294" s="0" t="n">
         <v>8210</v>
@@ -5713,7 +5557,7 @@
     </row>
     <row r="295" spans="30:31" customHeight="1">
       <c r="AD295" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AE295" s="0" t="n">
         <v>12100</v>
@@ -5721,7 +5565,7 @@
     </row>
     <row r="296" spans="30:31" customHeight="1">
       <c r="AD296" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AE296" s="0" t="n">
         <v>5190</v>
@@ -5729,7 +5573,7 @@
     </row>
     <row r="297" spans="30:31" customHeight="1">
       <c r="AD297" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AE297" s="0" t="n">
         <v>5330</v>
@@ -5737,7 +5581,7 @@
     </row>
     <row r="298" spans="30:31" customHeight="1">
       <c r="AD298" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AE298" s="0" t="n">
         <v>5240</v>
@@ -5745,7 +5589,7 @@
     </row>
     <row r="299" spans="30:31" customHeight="1">
       <c r="AD299" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AE299" s="0" t="n">
         <v>7920</v>
@@ -5753,7 +5597,7 @@
     </row>
     <row r="300" spans="30:31" customHeight="1">
       <c r="AD300" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AE300" s="0" t="n">
         <v>5040</v>
@@ -5761,7 +5605,7 @@
     </row>
     <row r="301" spans="30:31" customHeight="1">
       <c r="AD301" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AE301" s="0" t="n">
         <v>10280</v>
@@ -5769,7 +5613,7 @@
     </row>
     <row r="302" spans="30:31" customHeight="1">
       <c r="AD302" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AE302" s="0" t="n">
         <v>10470</v>
@@ -5777,7 +5621,7 @@
     </row>
     <row r="303" spans="30:31" customHeight="1">
       <c r="AD303" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AE303" s="0" t="n">
         <v>5040</v>
@@ -5785,7 +5629,7 @@
     </row>
     <row r="304" spans="30:31" customHeight="1">
       <c r="AD304" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AE304" s="0" t="n">
         <v>5240</v>
@@ -5793,7 +5637,7 @@
     </row>
     <row r="305" spans="30:31" customHeight="1">
       <c r="AD305" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AE305" s="0" t="n">
         <v>7920</v>
@@ -6054,7 +5898,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="32" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D5" s="32">
         <f>COUNTA(F5:AC5)</f>
@@ -6063,13 +5907,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="34" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -6107,7 +5951,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D6" s="32">
         <f>COUNTA(F6:AC6)</f>
@@ -6116,13 +5960,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="34" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -6160,7 +6004,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D7" s="32">
         <f>COUNTA(F7:AC7)</f>
@@ -6207,7 +6051,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -6345,10 +6189,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="C11" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D11" s="32">
         <f>COUNTA(F11:AC11)</f>
@@ -6392,10 +6236,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="C12" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D12" s="32">
         <f>COUNTA(F12:AC12)</f>
@@ -6439,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="C13" s="32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
         <f>COUNTA(F13:AC13)</f>
@@ -6486,10 +6330,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D14" s="32">
         <f>COUNTA(F14:AC14)</f>
@@ -6536,7 +6380,7 @@
         <v>363</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D15" s="32">
         <f>COUNTA(F15:AC15)</f>
@@ -6583,7 +6427,7 @@
         <v>364</v>
       </c>
       <c r="C16" s="27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="27">
         <f>COUNTA(F16:AC16)</f>
@@ -6724,7 +6568,7 @@
         <v>367</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="27">
         <f>COUNTA(F19:AC19)</f>
@@ -6771,7 +6615,7 @@
         <v>368</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D20" s="27">
         <f>COUNTA(F20:AC20)</f>
@@ -6818,7 +6662,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6865,7 +6709,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1354,7 +1354,7 @@
     <numFmt formatCode="#" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1391,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1469,20 +1476,20 @@
   </borders>
   <cellXfs count="35">
     <xf applyFont="1" fontId="0"/>
-    <xf applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="1"/>
-    <xf applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
@@ -1492,57 +1499,57 @@
     <xf applyFont="1" fontId="4" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="5"/>
     <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="3"/>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="3"/>
+    <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="6"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="7"/>
+    <xf applyFont="1" fontId="7" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="4" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7"/>
-    <xf applyFont="1" fontId="7" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="8"/>
+    <xf applyFont="1" fontId="8" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="5"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="6"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="7"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -6669,7 +6669,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6716,7 +6716,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1354,7 +1354,7 @@
     <numFmt formatCode="#" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1391,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <b/>
@@ -1469,20 +1476,20 @@
   </borders>
   <cellXfs count="35">
     <xf applyFont="1" fontId="0"/>
-    <xf applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="1"/>
-    <xf applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
@@ -1492,57 +1499,57 @@
     <xf applyFont="1" fontId="4" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="5"/>
     <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="3"/>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="3"/>
+    <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="5" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="6"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="7"/>
+    <xf applyFont="1" fontId="7" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
     <xf applyFont="1" fontId="6" applyFill="1" fillId="4" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="4" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7"/>
-    <xf applyFont="1" fontId="7" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="8"/>
+    <xf applyFont="1" fontId="8" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="5"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="6"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center"/>
     </xf>
-    <xf applyFill="1" fillId="7"/>
-    <xf applyFont="1" fontId="7" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6662,7 +6669,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="27">
         <f>COUNTA(F21:AC21)</f>
@@ -6709,7 +6716,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="27">
         <f>COUNTA(F22:AC22)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -1362,11 +1362,11 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFDEAEC4"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -1375,39 +1375,39 @@
       <family val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <u/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFA2C1E3"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFE7E8DE"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF616454"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -1556,11 +1556,11 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <b/>
         <sz val="12"/>
         <color rgb="FFDEAEC4"/>
         <name val="Calibri"/>
         <family val="1"/>
-        <b/>
       </font>
     </dxf>
   </dxfs>
@@ -1569,10 +1569,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
   <dimension ref="A1:AE305"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
@@ -5679,10 +5678,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -59,10 +59,10 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Bucentaure</t>
+  </si>
+  <si>
     <t>Christian</t>
-  </si>
-  <si>
-    <t>Bucentaure</t>
   </si>
   <si>
     <t>St. Pavel</t>
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -59,10 +59,10 @@
     <t>Victory</t>
   </si>
   <si>
+    <t>Bucentaure</t>
+  </si>
+  <si>
     <t>Christian</t>
-  </si>
-  <si>
-    <t>Bucentaure</t>
   </si>
   <si>
     <t>St. Pavel</t>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D8" s="32">
         <f>COUNTA(F8:AC8)</f>
@@ -1994,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D9" s="32">
         <f>COUNTA(F9:AC9)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -101,43 +101,43 @@
     <t>Diana</t>
   </si>
   <si>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
+    <t>Pirate Frigate</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>L’Hermione</t>
+  </si>
+  <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Hercules</t>
   </si>
   <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
-  </si>
-  <si>
-    <t>Pirate Frigate</t>
-  </si>
-  <si>
-    <t>Santa Cecilia</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
     <t>Renommee</t>
   </si>
   <si>
     <t>Cerberus</t>
   </si>
   <si>
-    <t>Essex</t>
-  </si>
-  <si>
     <t>Indiaman</t>
   </si>
   <si>
     <t>Le Gros Ventre</t>
-  </si>
-  <si>
-    <t>L’Hermione</t>
   </si>
   <si>
     <t>Surprise</t>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="27" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D25" s="27">
         <f>COUNTA(F25:AC25)</f>
@@ -2793,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D26" s="27">
         <f>COUNTA(F26:AC26)</f>
@@ -2840,7 +2840,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D27" s="27">
         <f>COUNTA(F27:AC27)</f>
@@ -2887,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D28" s="27">
         <f>COUNTA(F28:AC28)</f>
@@ -2981,7 +2981,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="27" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D30" s="27">
         <f>COUNTA(F30:AC30)</f>
@@ -3028,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="27" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D31" s="27">
         <f>COUNTA(F31:AC31)</f>

--- a/src/port-battle.xlsx
+++ b/src/port-battle.xlsx
@@ -113,6 +113,9 @@
     <t>Santa Cecilia</t>
   </si>
   <si>
+    <t>Belle Poule</t>
+  </si>
+  <si>
     <t>Essex</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
   </si>
   <si>
     <t>L’Hermione</t>
-  </si>
-  <si>
-    <t>Belle Poule</t>
   </si>
   <si>
     <t>Hercules</t>
@@ -2934,7 +2934,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="27" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D29" s="27">
         <f>COUNTA(F29:AC29)</f>
